--- a/sol_20d_BDF_AD.xlsx
+++ b/sol_20d_BDF_AD.xlsx
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02073828495233849</v>
+        <v>0.0207427166602097</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01956441976635706</v>
+        <v>0.01956860062283934</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01858619877803921</v>
+        <v>0.01859017059169737</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1132,34 +1132,34 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.00112114133765848</v>
+        <v>0.001121380922122782</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00137091098265685</v>
+        <v>0.001371203942128019</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.760797778972136e-05</v>
+        <v>1.761174056055541e-05</v>
       </c>
       <c r="R4" t="n">
-        <v>9999.980337758136</v>
+        <v>9999.980333556374</v>
       </c>
       <c r="S4" t="n">
-        <v>9999.980337758136</v>
+        <v>9999.980333556374</v>
       </c>
       <c r="T4" t="n">
-        <v>9999.980337758136</v>
+        <v>9999.980333556374</v>
       </c>
       <c r="U4" t="n">
-        <v>499.9999931524531</v>
+        <v>499.9999931509898</v>
       </c>
       <c r="V4" t="n">
-        <v>499.9999931524531</v>
+        <v>499.9999931509898</v>
       </c>
       <c r="W4" t="n">
-        <v>499.9999931524531</v>
+        <v>499.9999931509898</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -1168,31 +1168,31 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>499.9999931524531</v>
+        <v>499.9999931509898</v>
       </c>
       <c r="AA4" t="n">
-        <v>499.9999931524531</v>
+        <v>499.9999931509898</v>
       </c>
       <c r="AB4" t="n">
-        <v>999.9999863049062</v>
+        <v>999.9999863019796</v>
       </c>
       <c r="AC4" t="n">
-        <v>999.9999863049062</v>
+        <v>999.9999863019796</v>
       </c>
       <c r="AD4" t="n">
-        <v>499.999995108895</v>
+        <v>499.9999951078499</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.956441976635707e-05</v>
+        <v>1.956860062283934e-05</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.782209883178534e-06</v>
+        <v>9.78430031141967e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.005974303327367277</v>
+        <v>0.005932609920467204</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389414</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -1285,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>39.57994606815164</v>
+        <v>51.09746097956228</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>2.073828495233849e-05</v>
+        <v>2.07427166602097e-05</v>
       </c>
       <c r="BP4" t="n">
-        <v>1.956441976635706e-05</v>
+        <v>1.956860062283934e-05</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1.858619877803921e-05</v>
+        <v>1.859017059169737e-05</v>
       </c>
       <c r="BR4" t="n">
         <v>0</v>
@@ -1324,34 +1324,34 @@
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1.12114133765848e-06</v>
+        <v>1.121380922122782e-06</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.37091098265685e-06</v>
+        <v>1.371203942128019e-06</v>
       </c>
       <c r="CB4" t="n">
         <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>1.760797778972136e-08</v>
+        <v>1.761174056055541e-08</v>
       </c>
       <c r="CD4" t="n">
-        <v>9.999980337758135</v>
+        <v>9.999980333556374</v>
       </c>
       <c r="CE4" t="n">
-        <v>9.999980337758135</v>
+        <v>9.999980333556374</v>
       </c>
       <c r="CF4" t="n">
-        <v>9.999980337758135</v>
+        <v>9.999980333556374</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.4999999931524531</v>
+        <v>0.4999999931509898</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.4999999931524531</v>
+        <v>0.4999999931509898</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.4999999931524531</v>
+        <v>0.4999999931509898</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
@@ -1360,28 +1360,28 @@
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.4999999931524531</v>
+        <v>0.4999999931509898</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.4999999931524531</v>
+        <v>0.4999999931509898</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.9999999863049062</v>
+        <v>0.9999999863019796</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.9999999863049062</v>
+        <v>0.9999999863019796</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.499999995108895</v>
+        <v>0.4999999951078499</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1.956441976635707e-08</v>
+        <v>1.956860062283934e-08</v>
       </c>
       <c r="CR4" t="n">
-        <v>9.782209883178533e-09</v>
+        <v>9.78430031141967e-09</v>
       </c>
       <c r="CS4" t="n">
-        <v>5.974303327367276e-06</v>
+        <v>5.932609920467204e-06</v>
       </c>
       <c r="CT4" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389414</v>
       </c>
     </row>
     <row r="5">
@@ -1404,67 +1404,67 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>14.78905886380372</v>
+        <v>14.78898638574548</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08291470649702747</v>
+        <v>0.08265522285042309</v>
       </c>
       <c r="E5" t="n">
-        <v>9038.6649971317</v>
+        <v>9038.639306966954</v>
       </c>
       <c r="F5" t="n">
-        <v>2296.634442133002</v>
+        <v>2296.635331238381</v>
       </c>
       <c r="G5" t="n">
-        <v>39.42720072331339</v>
+        <v>39.42721598692467</v>
       </c>
       <c r="H5" t="n">
-        <v>2007.360578094524</v>
+        <v>2007.295351501648</v>
       </c>
       <c r="I5" t="n">
-        <v>3546.439577088517</v>
+        <v>3546.321185802371</v>
       </c>
       <c r="J5" t="n">
-        <v>437.8259380064382</v>
+        <v>437.8228589940077</v>
       </c>
       <c r="K5" t="n">
-        <v>7556.544450924424</v>
+        <v>7556.697607102806</v>
       </c>
       <c r="L5" t="n">
-        <v>1.390324134621349</v>
+        <v>1.378275522991016</v>
       </c>
       <c r="M5" t="n">
-        <v>0.009998170383078233</v>
+        <v>0.009670735858081137</v>
       </c>
       <c r="N5" t="n">
-        <v>363.1720580839834</v>
+        <v>321.3596671640404</v>
       </c>
       <c r="O5" t="n">
-        <v>7620.050580609486</v>
+        <v>7620.052753044936</v>
       </c>
       <c r="P5" t="n">
-        <v>2.235852587322338</v>
+        <v>2.235864865548693</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.19075283039466</v>
+        <v>88.19279784611305</v>
       </c>
       <c r="R5" t="n">
-        <v>1.250307530765859</v>
+        <v>1.246551699121627</v>
       </c>
       <c r="S5" t="n">
-        <v>1.250307530765859</v>
+        <v>1.246551699121627</v>
       </c>
       <c r="T5" t="n">
-        <v>1.651050912934792</v>
+        <v>1.647305650573494</v>
       </c>
       <c r="U5" t="n">
-        <v>1547.570783829697</v>
+        <v>1547.570613384668</v>
       </c>
       <c r="V5" t="n">
-        <v>1215.482338254128</v>
+        <v>1215.481186845225</v>
       </c>
       <c r="W5" t="n">
-        <v>466.3659991109357</v>
+        <v>466.3677156740998</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1473,31 +1473,31 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>467.221717428537</v>
+        <v>467.2327969763803</v>
       </c>
       <c r="AA5" t="n">
-        <v>466.3326360374526</v>
+        <v>466.3340848366371</v>
       </c>
       <c r="AB5" t="n">
-        <v>932.4057783552837</v>
+        <v>932.4056621962743</v>
       </c>
       <c r="AC5" t="n">
-        <v>932.8778747475835</v>
+        <v>932.8779718142757</v>
       </c>
       <c r="AD5" t="n">
-        <v>480.0867032379158</v>
+        <v>480.0867173774567</v>
       </c>
       <c r="AE5" t="n">
-        <v>97.54000774691528</v>
+        <v>97.54004941456392</v>
       </c>
       <c r="AF5" t="n">
-        <v>48.77000387345764</v>
+        <v>48.77002470728196</v>
       </c>
       <c r="AG5" t="n">
-        <v>29785.37568672971</v>
+        <v>29571.20317148874</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389414</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>16.18843594404607</v>
+        <v>15.67820697010689</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.1034085840370675</v>
+        <v>0.09985560956854825</v>
       </c>
       <c r="AT5" t="n">
-        <v>453.8922916590105</v>
+        <v>439.3149434497852</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1590,73 +1590,73 @@
         <v>0</v>
       </c>
       <c r="BM5" t="n">
-        <v>39.57994606815164</v>
+        <v>51.09746097956229</v>
       </c>
       <c r="BN5" t="n">
-        <v>1874.488765877808</v>
+        <v>1937.659647059133</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.01478905886380372</v>
+        <v>0.01478898638574548</v>
       </c>
       <c r="BP5" t="n">
-        <v>8.291470649702747e-05</v>
+        <v>8.265522285042309e-05</v>
       </c>
       <c r="BQ5" t="n">
-        <v>9.038664997131701</v>
+        <v>9.038639306966953</v>
       </c>
       <c r="BR5" t="n">
-        <v>2.296634442133002</v>
+        <v>2.296635331238381</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.03942720072331339</v>
+        <v>0.03942721598692467</v>
       </c>
       <c r="BT5" t="n">
-        <v>2.007360578094525</v>
+        <v>2.007295351501648</v>
       </c>
       <c r="BU5" t="n">
-        <v>3.546439577088517</v>
+        <v>3.546321185802371</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.4378259380064382</v>
+        <v>0.4378228589940076</v>
       </c>
       <c r="BW5" t="n">
-        <v>7.556544450924424</v>
+        <v>7.556697607102805</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.001390324134621349</v>
+        <v>0.001378275522991016</v>
       </c>
       <c r="BY5" t="n">
-        <v>9.998170383078233e-06</v>
+        <v>9.670735858081136e-06</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.3631720580839833</v>
+        <v>0.3213596671640404</v>
       </c>
       <c r="CA5" t="n">
-        <v>7.620050580609487</v>
+        <v>7.620052753044936</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.002235852587322338</v>
+        <v>0.002235864865548692</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.08819075283039467</v>
+        <v>0.08819279784611306</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.001250307530765859</v>
+        <v>0.001246551699121628</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.001250307530765859</v>
+        <v>0.001246551699121628</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.001651050912934792</v>
+        <v>0.001647305650573493</v>
       </c>
       <c r="CG5" t="n">
-        <v>1.547570783829697</v>
+        <v>1.547570613384668</v>
       </c>
       <c r="CH5" t="n">
-        <v>1.215482338254128</v>
+        <v>1.215481186845225</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.4663659991109357</v>
+        <v>0.4663677156740998</v>
       </c>
       <c r="CJ5" t="n">
         <v>0</v>
@@ -1665,40 +1665,40 @@
         <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.467221717428537</v>
+        <v>0.4672327969763803</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.4663326360374526</v>
+        <v>0.466334084836637</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.9324057783552837</v>
+        <v>0.9324056621962742</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.9328778747475834</v>
+        <v>0.9328779718142757</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.4800867032379158</v>
+        <v>0.4800867173774567</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.09754000774691526</v>
+        <v>0.0975400494145639</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.04877000387345763</v>
+        <v>0.04877002470728195</v>
       </c>
       <c r="CS5" t="n">
-        <v>29.7853756867297</v>
+        <v>29.57120317148874</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.001011815189572488</v>
+        <v>0.0009799246828072856</v>
       </c>
       <c r="CU5" t="n">
-        <v>1.615819718818636e-06</v>
+        <v>1.560302410848973e-06</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.0377906609655566</v>
+        <v>0.03657696416110512</v>
       </c>
       <c r="CW5" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389414</v>
       </c>
     </row>
     <row r="6">
@@ -1709,67 +1709,67 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>14.86579787915052</v>
+        <v>14.86319500019851</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09470363131535429</v>
+        <v>0.09468913944755097</v>
       </c>
       <c r="E6" t="n">
-        <v>8606.906579327613</v>
+        <v>8606.810684394111</v>
       </c>
       <c r="F6" t="n">
-        <v>2391.544586151366</v>
+        <v>2391.546397011132</v>
       </c>
       <c r="G6" t="n">
-        <v>41.05655941890761</v>
+        <v>41.05659050662855</v>
       </c>
       <c r="H6" t="n">
-        <v>1896.267391351606</v>
+        <v>1896.06505692148</v>
       </c>
       <c r="I6" t="n">
-        <v>3462.431990229648</v>
+        <v>3462.059090643262</v>
       </c>
       <c r="J6" t="n">
-        <v>416.1106369088646</v>
+        <v>416.0988568602859</v>
       </c>
       <c r="K6" t="n">
-        <v>7591.962340260567</v>
+        <v>7592.426477161394</v>
       </c>
       <c r="L6" t="n">
-        <v>1.385718851969589</v>
+        <v>1.373647936102353</v>
       </c>
       <c r="M6" t="n">
-        <v>0.009248716086716083</v>
+        <v>0.008932946826234012</v>
       </c>
       <c r="N6" t="n">
-        <v>363.2039506006222</v>
+        <v>321.3893834347917</v>
       </c>
       <c r="O6" t="n">
-        <v>14076.81202200284</v>
+        <v>14076.90519118853</v>
       </c>
       <c r="P6" t="n">
-        <v>7.871512482157364</v>
+        <v>7.871295670563129</v>
       </c>
       <c r="Q6" t="n">
-        <v>140.9873916488179</v>
+        <v>140.9954124469337</v>
       </c>
       <c r="R6" t="n">
-        <v>1.363448809444889</v>
+        <v>1.363536226964033</v>
       </c>
       <c r="S6" t="n">
-        <v>1.363448809444889</v>
+        <v>1.363536226964033</v>
       </c>
       <c r="T6" t="n">
-        <v>2.045237652520936</v>
+        <v>2.045366944138466</v>
       </c>
       <c r="U6" t="n">
-        <v>1540.651362787292</v>
+        <v>1540.650873933927</v>
       </c>
       <c r="V6" t="n">
-        <v>1134.211881892958</v>
+        <v>1134.208828179422</v>
       </c>
       <c r="W6" t="n">
-        <v>435.2492339382586</v>
+        <v>435.2538233297533</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1778,31 +1778,31 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>438.2986841767066</v>
+        <v>438.3319284964066</v>
       </c>
       <c r="AA6" t="n">
-        <v>435.1596466281777</v>
+        <v>435.163471773854</v>
       </c>
       <c r="AB6" t="n">
-        <v>869.3859671812513</v>
+        <v>869.3844219161565</v>
       </c>
       <c r="AC6" t="n">
-        <v>869.8892950182551</v>
+        <v>869.8881204374131</v>
       </c>
       <c r="AD6" t="n">
-        <v>468.1636778421677</v>
+        <v>468.1628972386495</v>
       </c>
       <c r="AE6" t="n">
-        <v>190.3173884885873</v>
+        <v>190.3187764099012</v>
       </c>
       <c r="AF6" t="n">
-        <v>95.15869424429363</v>
+        <v>95.15938820495062</v>
       </c>
       <c r="AG6" t="n">
-        <v>58116.40830046101</v>
+        <v>57698.91688947622</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.000001147389408</v>
+        <v>7.000001147389415</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -1832,13 +1832,13 @@
         <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>16.13640848925519</v>
+        <v>15.62166407883038</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.09565874300703736</v>
+        <v>0.0922414767391314</v>
       </c>
       <c r="AT6" t="n">
-        <v>453.9325501248617</v>
+        <v>439.3579930324835</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1895,73 +1895,73 @@
         <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>39.57994606815164</v>
+        <v>51.09746097956228</v>
       </c>
       <c r="BN6" t="n">
-        <v>1874.795225525079</v>
+        <v>1937.565854766286</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.01486579787915052</v>
+        <v>0.01486319500019851</v>
       </c>
       <c r="BP6" t="n">
-        <v>9.47036313153543e-05</v>
+        <v>9.468913944755097e-05</v>
       </c>
       <c r="BQ6" t="n">
-        <v>8.606906579327612</v>
+        <v>8.606810684394111</v>
       </c>
       <c r="BR6" t="n">
-        <v>2.391544586151366</v>
+        <v>2.391546397011132</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.04105655941890761</v>
+        <v>0.04105659050662854</v>
       </c>
       <c r="BT6" t="n">
-        <v>1.896267391351606</v>
+        <v>1.89606505692148</v>
       </c>
       <c r="BU6" t="n">
-        <v>3.462431990229649</v>
+        <v>3.462059090643262</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.4161106369088646</v>
+        <v>0.416098856860286</v>
       </c>
       <c r="BW6" t="n">
-        <v>7.591962340260567</v>
+        <v>7.592426477161395</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.001385718851969589</v>
+        <v>0.001373647936102353</v>
       </c>
       <c r="BY6" t="n">
-        <v>9.248716086716083e-06</v>
+        <v>8.932946826234014e-06</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.3632039506006222</v>
+        <v>0.3213893834347917</v>
       </c>
       <c r="CA6" t="n">
-        <v>14.07681202200284</v>
+        <v>14.07690519118853</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.007871512482157363</v>
+        <v>0.007871295670563128</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.140987391648818</v>
+        <v>0.1409954124469337</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.001363448809444889</v>
+        <v>0.001363536226964033</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.001363448809444889</v>
+        <v>0.001363536226964033</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.002045237652520936</v>
+        <v>0.002045366944138465</v>
       </c>
       <c r="CG6" t="n">
-        <v>1.540651362787292</v>
+        <v>1.540650873933927</v>
       </c>
       <c r="CH6" t="n">
-        <v>1.134211881892958</v>
+        <v>1.134208828179422</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.4352492339382585</v>
+        <v>0.4352538233297533</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
@@ -1970,40 +1970,40 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.4382986841767066</v>
+        <v>0.4383319284964066</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.4351596466281777</v>
+        <v>0.4351634717738539</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.8693859671812514</v>
+        <v>0.8693844219161566</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.8698892950182551</v>
+        <v>0.8698881204374131</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.4681636778421677</v>
+        <v>0.4681628972386496</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.1903173884885873</v>
+        <v>0.1903187764099012</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.09515869424429364</v>
+        <v>0.09515938820495062</v>
       </c>
       <c r="CS6" t="n">
-        <v>58.116408300461</v>
+        <v>57.69891688947623</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.001008563351704138</v>
+        <v>0.0009763906195751329</v>
       </c>
       <c r="CU6" t="n">
-        <v>1.494723911631645e-06</v>
+        <v>1.441327123816071e-06</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.03779401284894816</v>
+        <v>0.03658054843035655</v>
       </c>
       <c r="CW6" t="n">
-        <v>7.000001147389408</v>
+        <v>7.000001147389415</v>
       </c>
     </row>
     <row r="7">
@@ -2014,67 +2014,67 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>14.97151103875238</v>
+        <v>14.98090223130539</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1223218413286132</v>
+        <v>0.122508745376157</v>
       </c>
       <c r="E7" t="n">
-        <v>8202.218784413359</v>
+        <v>8201.814807090857</v>
       </c>
       <c r="F7" t="n">
-        <v>2482.570959672295</v>
+        <v>2482.592128413681</v>
       </c>
       <c r="G7" t="n">
-        <v>42.61924394287207</v>
+        <v>42.61960735474122</v>
       </c>
       <c r="H7" t="n">
-        <v>1792.78445353249</v>
+        <v>1792.397767461675</v>
       </c>
       <c r="I7" t="n">
-        <v>3385.417537499431</v>
+        <v>3384.747357086218</v>
       </c>
       <c r="J7" t="n">
-        <v>395.6120579363082</v>
+        <v>395.5818211709274</v>
       </c>
       <c r="K7" t="n">
-        <v>7626.101892493827</v>
+        <v>7626.828547006795</v>
       </c>
       <c r="L7" t="n">
-        <v>1.385540595177703</v>
+        <v>1.373398931652898</v>
       </c>
       <c r="M7" t="n">
-        <v>0.008560007054738082</v>
+        <v>0.008257238708493006</v>
       </c>
       <c r="N7" t="n">
-        <v>363.2064717952592</v>
+        <v>321.3921321173832</v>
       </c>
       <c r="O7" t="n">
-        <v>20215.05683942129</v>
+        <v>20217.58329274902</v>
       </c>
       <c r="P7" t="n">
-        <v>15.09663052423101</v>
+        <v>15.06941024770986</v>
       </c>
       <c r="Q7" t="n">
-        <v>166.6923865997245</v>
+        <v>167.0634220747873</v>
       </c>
       <c r="R7" t="n">
-        <v>1.640215278927526</v>
+        <v>1.64408429126317</v>
       </c>
       <c r="S7" t="n">
-        <v>1.640215278927526</v>
+        <v>1.64408429126317</v>
       </c>
       <c r="T7" t="n">
-        <v>2.46029049774458</v>
+        <v>2.466113583514077</v>
       </c>
       <c r="U7" t="n">
-        <v>1534.582370446471</v>
+        <v>1534.570243531509</v>
       </c>
       <c r="V7" t="n">
-        <v>1058.780019447655</v>
+        <v>1058.727837219515</v>
       </c>
       <c r="W7" t="n">
-        <v>406.2316485945144</v>
+        <v>406.2225945368975</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -2083,31 +2083,31 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>411.1794332491941</v>
+        <v>411.2183904993902</v>
       </c>
       <c r="AA7" t="n">
-        <v>406.0912138238679</v>
+        <v>406.0809003157487</v>
       </c>
       <c r="AB7" t="n">
-        <v>810.6747033994757</v>
+        <v>810.638662625334</v>
       </c>
       <c r="AC7" t="n">
-        <v>811.2027537152615</v>
+        <v>811.1673506914876</v>
       </c>
       <c r="AD7" t="n">
-        <v>460.5640053522403</v>
+        <v>460.500458341649</v>
       </c>
       <c r="AE7" t="n">
-        <v>278.5170227846363</v>
+        <v>278.5534486173429</v>
       </c>
       <c r="AF7" t="n">
-        <v>139.2585113923182</v>
+        <v>139.2767243086714</v>
       </c>
       <c r="AG7" t="n">
-        <v>85049.55402827723</v>
+        <v>84449.01015143827</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389415</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>16.13448287422299</v>
+        <v>15.61867992774796</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.08853267269892609</v>
+        <v>0.08526334413491549</v>
       </c>
       <c r="AT7" t="n">
-        <v>453.9354399113113</v>
+        <v>439.3616067492988</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2200,73 +2200,73 @@
         <v>0</v>
       </c>
       <c r="BM7" t="n">
-        <v>39.57994606815165</v>
+        <v>51.09746097956229</v>
       </c>
       <c r="BN7" t="n">
-        <v>1874.189972348213</v>
+        <v>1937.573702678258</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.01497151103875238</v>
+        <v>0.0149809022313054</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0001223218413286132</v>
+        <v>0.000122508745376157</v>
       </c>
       <c r="BQ7" t="n">
-        <v>8.202218784413359</v>
+        <v>8.201814807090857</v>
       </c>
       <c r="BR7" t="n">
-        <v>2.482570959672294</v>
+        <v>2.48259212841368</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.04261924394287207</v>
+        <v>0.04261960735474122</v>
       </c>
       <c r="BT7" t="n">
-        <v>1.792784453532489</v>
+        <v>1.792397767461675</v>
       </c>
       <c r="BU7" t="n">
-        <v>3.385417537499431</v>
+        <v>3.384747357086218</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.3956120579363083</v>
+        <v>0.3955818211709274</v>
       </c>
       <c r="BW7" t="n">
-        <v>7.626101892493827</v>
+        <v>7.626828547006795</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.001385540595177703</v>
+        <v>0.001373398931652898</v>
       </c>
       <c r="BY7" t="n">
-        <v>8.560007054738081e-06</v>
+        <v>8.257238708493006e-06</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.3632064717952592</v>
+        <v>0.3213921321173832</v>
       </c>
       <c r="CA7" t="n">
-        <v>20.21505683942129</v>
+        <v>20.21758329274902</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.01509663052423101</v>
+        <v>0.01506941024770986</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.1666923865997245</v>
+        <v>0.1670634220747873</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.001640215278927526</v>
+        <v>0.00164408429126317</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.001640215278927526</v>
+        <v>0.00164408429126317</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.00246029049774458</v>
+        <v>0.002466113583514077</v>
       </c>
       <c r="CG7" t="n">
-        <v>1.534582370446471</v>
+        <v>1.534570243531509</v>
       </c>
       <c r="CH7" t="n">
-        <v>1.058780019447655</v>
+        <v>1.058727837219515</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.4062316485945144</v>
+        <v>0.4062225945368975</v>
       </c>
       <c r="CJ7" t="n">
         <v>0</v>
@@ -2275,40 +2275,40 @@
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.411179433249194</v>
+        <v>0.4112183904993902</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.4060912138238679</v>
+        <v>0.4060809003157487</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.8106747033994757</v>
+        <v>0.810638662625334</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.8112027537152615</v>
+        <v>0.8111673506914877</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.4605640053522403</v>
+        <v>0.460500458341649</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.2785170227846364</v>
+        <v>0.2785534486173429</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.1392585113923182</v>
+        <v>0.1392767243086714</v>
       </c>
       <c r="CS7" t="n">
-        <v>85.04955402827723</v>
+        <v>84.44901015143826</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.001008442996251296</v>
+        <v>0.0009762041031381155</v>
       </c>
       <c r="CU7" t="n">
-        <v>1.383374887479001e-06</v>
+        <v>1.332289712972291e-06</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.03779425344994974</v>
+        <v>0.03658084930514448</v>
       </c>
       <c r="CW7" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389415</v>
       </c>
     </row>
     <row r="8">
@@ -2319,67 +2319,67 @@
         <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>15.04652851137111</v>
+        <v>15.0447778053167</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1405818398715102</v>
+        <v>0.1404208090058081</v>
       </c>
       <c r="E8" t="n">
-        <v>7819.869003512553</v>
+        <v>7820.612632899436</v>
       </c>
       <c r="F8" t="n">
-        <v>2569.660167886228</v>
+        <v>2569.458122581322</v>
       </c>
       <c r="G8" t="n">
-        <v>44.11433764611554</v>
+        <v>44.11086905718969</v>
       </c>
       <c r="H8" t="n">
-        <v>1695.838060063955</v>
+        <v>1695.702237726707</v>
       </c>
       <c r="I8" t="n">
-        <v>3314.128441696741</v>
+        <v>3313.55677834173</v>
       </c>
       <c r="J8" t="n">
-        <v>376.1628129772496</v>
+        <v>376.1825538858366</v>
       </c>
       <c r="K8" t="n">
-        <v>7658.019715286267</v>
+        <v>7658.860227990019</v>
       </c>
       <c r="L8" t="n">
-        <v>1.383080506249103</v>
+        <v>1.370898938595111</v>
       </c>
       <c r="M8" t="n">
-        <v>0.007926293419975994</v>
+        <v>0.007640654478418499</v>
       </c>
       <c r="N8" t="n">
-        <v>363.2212724576798</v>
+        <v>321.4051967272119</v>
       </c>
       <c r="O8" t="n">
-        <v>26059.92699461421</v>
+        <v>26046.18355201024</v>
       </c>
       <c r="P8" t="n">
-        <v>22.80813959105389</v>
+        <v>22.79348495088995</v>
       </c>
       <c r="Q8" t="n">
-        <v>177.6095117505985</v>
+        <v>177.324584985991</v>
       </c>
       <c r="R8" t="n">
-        <v>1.760657315824356</v>
+        <v>1.757650325393461</v>
       </c>
       <c r="S8" t="n">
-        <v>1.760657315824356</v>
+        <v>1.757650325393461</v>
       </c>
       <c r="T8" t="n">
-        <v>2.640987804813455</v>
+        <v>2.636471376053905</v>
       </c>
       <c r="U8" t="n">
-        <v>1529.109969034842</v>
+        <v>1529.128205225291</v>
       </c>
       <c r="V8" t="n">
-        <v>988.4887795391896</v>
+        <v>988.7142703210893</v>
       </c>
       <c r="W8" t="n">
-        <v>379.1110853258226</v>
+        <v>379.2079826253573</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -2388,31 +2388,31 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>385.7029644825628</v>
+        <v>385.8490175363853</v>
       </c>
       <c r="AA8" t="n">
-        <v>378.9245697694453</v>
+        <v>379.0200567646452</v>
       </c>
       <c r="AB8" t="n">
-        <v>755.8520349954794</v>
+        <v>756.0274706640377</v>
       </c>
       <c r="AC8" t="n">
-        <v>756.3992153024478</v>
+        <v>756.5752407086582</v>
       </c>
       <c r="AD8" t="n">
-        <v>454.9907836782675</v>
+        <v>455.0107887646093</v>
       </c>
       <c r="AE8" t="n">
-        <v>362.5019820150664</v>
+        <v>362.3047245491478</v>
       </c>
       <c r="AF8" t="n">
-        <v>181.2509910075332</v>
+        <v>181.1523622745739</v>
       </c>
       <c r="AG8" t="n">
-        <v>110695.6824272382</v>
+        <v>109839.8727900728</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389414</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>16.10673929313726</v>
+        <v>15.59131994587991</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.08198361809771169</v>
+        <v>0.07889995617415035</v>
       </c>
       <c r="AT8" t="n">
-        <v>453.9564044624128</v>
+        <v>439.3822075141333</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2505,73 +2505,73 @@
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>39.57994606815164</v>
+        <v>51.09746097956229</v>
       </c>
       <c r="BN8" t="n">
-        <v>1874.623417249386</v>
+        <v>1937.459176999077</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.01504652851137111</v>
+        <v>0.0150447778053167</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.0001405818398715102</v>
+        <v>0.0001404208090058081</v>
       </c>
       <c r="BQ8" t="n">
-        <v>7.819869003512553</v>
+        <v>7.820612632899436</v>
       </c>
       <c r="BR8" t="n">
-        <v>2.569660167886227</v>
+        <v>2.569458122581322</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.04411433764611555</v>
+        <v>0.04411086905718968</v>
       </c>
       <c r="BT8" t="n">
-        <v>1.695838060063955</v>
+        <v>1.695702237726707</v>
       </c>
       <c r="BU8" t="n">
-        <v>3.31412844169674</v>
+        <v>3.31355677834173</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.3761628129772496</v>
+        <v>0.3761825538858367</v>
       </c>
       <c r="BW8" t="n">
-        <v>7.658019715286266</v>
+        <v>7.658860227990019</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.001383080506249103</v>
+        <v>0.001370898938595111</v>
       </c>
       <c r="BY8" t="n">
-        <v>7.926293419975994e-06</v>
+        <v>7.6406544784185e-06</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.3632212724576798</v>
+        <v>0.3214051967272119</v>
       </c>
       <c r="CA8" t="n">
-        <v>26.05992699461421</v>
+        <v>26.04618355201025</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.02280813959105389</v>
+        <v>0.02279348495088994</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.1776095117505985</v>
+        <v>0.177324584985991</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.001760657315824357</v>
+        <v>0.00175765032539346</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.001760657315824357</v>
+        <v>0.00175765032539346</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.002640987804813455</v>
+        <v>0.002636471376053906</v>
       </c>
       <c r="CG8" t="n">
-        <v>1.529109969034842</v>
+        <v>1.529128205225291</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.9884887795391897</v>
+        <v>0.9887142703210893</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.3791110853258225</v>
+        <v>0.3792079826253572</v>
       </c>
       <c r="CJ8" t="n">
         <v>0</v>
@@ -2580,40 +2580,40 @@
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.3857029644825628</v>
+        <v>0.3858490175363853</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.3789245697694453</v>
+        <v>0.3790200567646452</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.7558520349954793</v>
+        <v>0.7560274706640377</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.7563992153024478</v>
+        <v>0.7565752407086581</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.4549907836782676</v>
+        <v>0.4550107887646093</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.3625019820150664</v>
+        <v>0.3623047245491479</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.1812509910075332</v>
+        <v>0.1811523622745739</v>
       </c>
       <c r="CS8" t="n">
-        <v>110.6956824272382</v>
+        <v>109.8398727900728</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.001006708957406982</v>
+        <v>0.0009744940401439999</v>
       </c>
       <c r="CU8" t="n">
-        <v>1.28104207185444e-06</v>
+        <v>1.232858047397877e-06</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.03779599893948003</v>
+        <v>0.03658256450615978</v>
       </c>
       <c r="CW8" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389414</v>
       </c>
     </row>
     <row r="9">
@@ -2624,67 +2624,67 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>15.1021691232116</v>
+        <v>15.10204339271425</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1530894215600587</v>
+        <v>0.1531728199259546</v>
       </c>
       <c r="E9" t="n">
-        <v>7457.999334870855</v>
+        <v>7457.378128313652</v>
       </c>
       <c r="F9" t="n">
-        <v>2652.571721283743</v>
+        <v>2652.656667312944</v>
       </c>
       <c r="G9" t="n">
-        <v>45.5377119533692</v>
+        <v>45.53917025429853</v>
       </c>
       <c r="H9" t="n">
-        <v>1605.023411730836</v>
+        <v>1604.400809243609</v>
       </c>
       <c r="I9" t="n">
-        <v>3247.993184069087</v>
+        <v>3246.908076019306</v>
       </c>
       <c r="J9" t="n">
-        <v>357.7061195850769</v>
+        <v>357.6543743570516</v>
       </c>
       <c r="K9" t="n">
-        <v>7686.988720546231</v>
+        <v>7688.268768075085</v>
       </c>
       <c r="L9" t="n">
-        <v>1.379360733698243</v>
+        <v>1.367209460278728</v>
       </c>
       <c r="M9" t="n">
-        <v>0.007344983027683826</v>
+        <v>0.007070479502705229</v>
       </c>
       <c r="N9" t="n">
-        <v>363.2427725000907</v>
+        <v>321.423740832763</v>
       </c>
       <c r="O9" t="n">
-        <v>31613.30414657052</v>
+        <v>31619.08502552805</v>
       </c>
       <c r="P9" t="n">
-        <v>30.44736492755536</v>
+        <v>30.45282556407768</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.761625358141</v>
+        <v>179.9062050664288</v>
       </c>
       <c r="R9" t="n">
-        <v>1.788460164601096</v>
+        <v>1.790037276152771</v>
       </c>
       <c r="S9" t="n">
-        <v>1.788460164601096</v>
+        <v>1.790037276152771</v>
       </c>
       <c r="T9" t="n">
-        <v>2.682721616013577</v>
+        <v>2.685062431345482</v>
       </c>
       <c r="U9" t="n">
-        <v>1524.092716527812</v>
+        <v>1524.084150986063</v>
       </c>
       <c r="V9" t="n">
-        <v>923.1097616669098</v>
+        <v>923.0106704036009</v>
       </c>
       <c r="W9" t="n">
-        <v>353.8397366522248</v>
+        <v>353.8155497563881</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -2693,31 +2693,31 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>361.8387508875432</v>
+        <v>361.8917558157563</v>
       </c>
       <c r="AA9" t="n">
-        <v>353.6117201789585</v>
+        <v>353.5854534109449</v>
       </c>
       <c r="AB9" t="n">
-        <v>704.8156523562121</v>
+        <v>704.7385421144179</v>
       </c>
       <c r="AC9" t="n">
-        <v>705.3768036355516</v>
+        <v>705.3008751475985</v>
       </c>
       <c r="AD9" t="n">
-        <v>450.3196055257767</v>
+        <v>450.3097419730143</v>
       </c>
       <c r="AE9" t="n">
-        <v>442.3004973154771</v>
+        <v>442.3836366113786</v>
       </c>
       <c r="AF9" t="n">
-        <v>221.1502486577385</v>
+        <v>221.1918183056893</v>
       </c>
       <c r="AG9" t="n">
-        <v>135063.4143186799</v>
+        <v>134117.3853867645</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389414</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
@@ -2747,13 +2747,13 @@
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>16.06473670773973</v>
+        <v>15.55082545120326</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.0759759001486201</v>
+        <v>0.07301767859767339</v>
       </c>
       <c r="AT9" t="n">
-        <v>453.9872908862274</v>
+        <v>439.4119170420557</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2810,73 +2810,73 @@
         <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>39.57994606815165</v>
+        <v>51.09746097956228</v>
       </c>
       <c r="BN9" t="n">
-        <v>1874.416392775223</v>
+        <v>1937.293077660873</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.0151021691232116</v>
+        <v>0.01510204339271425</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.0001530894215600587</v>
+        <v>0.0001531728199259547</v>
       </c>
       <c r="BQ9" t="n">
-        <v>7.457999334870856</v>
+        <v>7.457378128313652</v>
       </c>
       <c r="BR9" t="n">
-        <v>2.652571721283744</v>
+        <v>2.652656667312944</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.0455377119533692</v>
+        <v>0.04553917025429852</v>
       </c>
       <c r="BT9" t="n">
-        <v>1.605023411730836</v>
+        <v>1.604400809243609</v>
       </c>
       <c r="BU9" t="n">
-        <v>3.247993184069087</v>
+        <v>3.246908076019306</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.3577061195850769</v>
+        <v>0.3576543743570516</v>
       </c>
       <c r="BW9" t="n">
-        <v>7.686988720546231</v>
+        <v>7.688268768075085</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.001379360733698243</v>
+        <v>0.001367209460278728</v>
       </c>
       <c r="BY9" t="n">
-        <v>7.344983027683826e-06</v>
+        <v>7.070479502705229e-06</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.3632427725000907</v>
+        <v>0.321423740832763</v>
       </c>
       <c r="CA9" t="n">
-        <v>31.61330414657053</v>
+        <v>31.61908502552804</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.03044736492755536</v>
+        <v>0.03045282556407768</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.179761625358141</v>
+        <v>0.1799062050664288</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.001788460164601096</v>
+        <v>0.001790037276152771</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.001788460164601096</v>
+        <v>0.001790037276152771</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.002682721616013576</v>
+        <v>0.002685062431345482</v>
       </c>
       <c r="CG9" t="n">
-        <v>1.524092716527812</v>
+        <v>1.524084150986063</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.9231097616669098</v>
+        <v>0.923010670403601</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.3538397366522247</v>
+        <v>0.3538155497563882</v>
       </c>
       <c r="CJ9" t="n">
         <v>0</v>
@@ -2885,40 +2885,40 @@
         <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.3618387508875432</v>
+        <v>0.3618917558157563</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.3536117201789586</v>
+        <v>0.3535854534109449</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.7048156523562121</v>
+        <v>0.7047385421144179</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.7053768036355517</v>
+        <v>0.7053008751475986</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.4503196055257767</v>
+        <v>0.4503097419730143</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.442300497315477</v>
+        <v>0.4423836366113786</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.2211502486577385</v>
+        <v>0.2211918183056893</v>
       </c>
       <c r="CS9" t="n">
-        <v>135.0634143186799</v>
+        <v>134.1173853867645</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.001004083697372384</v>
+        <v>0.0009719630393141781</v>
       </c>
       <c r="CU9" t="n">
-        <v>1.187167958620637e-06</v>
+        <v>1.140944013489152e-06</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.03779857051514294</v>
+        <v>0.03658503809453702</v>
       </c>
       <c r="CW9" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389414</v>
       </c>
     </row>
     <row r="10">
@@ -2929,67 +2929,67 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>15.14667429698811</v>
+        <v>15.14571405359696</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1621602334576358</v>
+        <v>0.162226071322133</v>
       </c>
       <c r="E10" t="n">
-        <v>7114.42983811608</v>
+        <v>7113.989922411592</v>
       </c>
       <c r="F10" t="n">
-        <v>2731.375207815175</v>
+        <v>2731.41089626645</v>
       </c>
       <c r="G10" t="n">
-        <v>46.89056150755694</v>
+        <v>46.89117418483079</v>
       </c>
       <c r="H10" t="n">
-        <v>1519.750747320034</v>
+        <v>1519.120035361993</v>
       </c>
       <c r="I10" t="n">
-        <v>3186.381106627889</v>
+        <v>3185.180325452249</v>
       </c>
       <c r="J10" t="n">
-        <v>340.1589507938062</v>
+        <v>340.1116919871419</v>
       </c>
       <c r="K10" t="n">
-        <v>7712.760655339409</v>
+        <v>7714.204052502844</v>
       </c>
       <c r="L10" t="n">
-        <v>1.375092039722571</v>
+        <v>1.362949081643264</v>
       </c>
       <c r="M10" t="n">
-        <v>0.006811208836201781</v>
+        <v>0.006551931351250671</v>
       </c>
       <c r="N10" t="n">
-        <v>363.2671562126328</v>
+        <v>321.4449955074811</v>
       </c>
       <c r="O10" t="n">
-        <v>36891.29582888192</v>
+        <v>36893.78242289864</v>
       </c>
       <c r="P10" t="n">
-        <v>37.68212617351598</v>
+        <v>37.68211768804798</v>
       </c>
       <c r="Q10" t="n">
-        <v>177.3478471641199</v>
+        <v>177.4442833117833</v>
       </c>
       <c r="R10" t="n">
-        <v>1.767985865634822</v>
+        <v>1.768984247391166</v>
       </c>
       <c r="S10" t="n">
-        <v>1.767985865634822</v>
+        <v>1.768984247391166</v>
       </c>
       <c r="T10" t="n">
-        <v>2.651970340834468</v>
+        <v>2.653476725093654</v>
       </c>
       <c r="U10" t="n">
-        <v>1519.420135511355</v>
+        <v>1519.415671361357</v>
       </c>
       <c r="V10" t="n">
-        <v>862.2192878101171</v>
+        <v>862.174319103915</v>
       </c>
       <c r="W10" t="n">
-        <v>330.2812351466125</v>
+        <v>330.2796151978318</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -2998,31 +2998,31 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>339.477164090047</v>
+        <v>339.5612892721353</v>
       </c>
       <c r="AA10" t="n">
-        <v>330.0159213007354</v>
+        <v>330.0119264754423</v>
       </c>
       <c r="AB10" t="n">
-        <v>657.2826431246879</v>
+        <v>657.2475429822271</v>
       </c>
       <c r="AC10" t="n">
-        <v>657.8532707197058</v>
+        <v>657.8195498551507</v>
       </c>
       <c r="AD10" t="n">
-        <v>445.828112256773</v>
+        <v>445.8191310813917</v>
       </c>
       <c r="AE10" t="n">
-        <v>518.1445603584339</v>
+        <v>518.1804171691646</v>
       </c>
       <c r="AF10" t="n">
-        <v>259.0722801792169</v>
+        <v>259.0902085845823</v>
       </c>
       <c r="AG10" t="n">
-        <v>158223.5920090894</v>
+        <v>157096.684772729</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.000001147389408</v>
+        <v>7.000001147389414</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
@@ -3052,13 +3052,13 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>16.01651496972646</v>
+        <v>15.50377645213502</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.07046019083882496</v>
+        <v>0.06766771745916716</v>
       </c>
       <c r="AT10" t="n">
-        <v>454.0224570823684</v>
+        <v>439.446133913146</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3115,73 +3115,73 @@
         <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>39.57994606815165</v>
+        <v>51.09746097956229</v>
       </c>
       <c r="BN10" t="n">
-        <v>1874.208047924968</v>
+        <v>1937.045724559825</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.01514667429698811</v>
+        <v>0.01514571405359696</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0001621602334576358</v>
+        <v>0.000162226071322133</v>
       </c>
       <c r="BQ10" t="n">
-        <v>7.114429838116079</v>
+        <v>7.113989922411593</v>
       </c>
       <c r="BR10" t="n">
-        <v>2.731375207815175</v>
+        <v>2.731410896266451</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.04689056150755694</v>
+        <v>0.0468911741848308</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.519750747320034</v>
+        <v>1.519120035361993</v>
       </c>
       <c r="BU10" t="n">
-        <v>3.18638110662789</v>
+        <v>3.185180325452249</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.3401589507938063</v>
+        <v>0.3401116919871419</v>
       </c>
       <c r="BW10" t="n">
-        <v>7.712760655339409</v>
+        <v>7.714204052502844</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.00137509203972257</v>
+        <v>0.001362949081643264</v>
       </c>
       <c r="BY10" t="n">
-        <v>6.811208836201781e-06</v>
+        <v>6.551931351250672e-06</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.3632671562126328</v>
+        <v>0.3214449955074811</v>
       </c>
       <c r="CA10" t="n">
-        <v>36.89129582888192</v>
+        <v>36.89378242289864</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.03768212617351598</v>
+        <v>0.03768211768804798</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.1773478471641199</v>
+        <v>0.1774442833117832</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.001767985865634822</v>
+        <v>0.001768984247391166</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.001767985865634822</v>
+        <v>0.001768984247391166</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.002651970340834468</v>
+        <v>0.002653476725093654</v>
       </c>
       <c r="CG10" t="n">
-        <v>1.519420135511355</v>
+        <v>1.519415671361357</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.862219287810117</v>
+        <v>0.8621743191039148</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.3302812351466125</v>
+        <v>0.3302796151978318</v>
       </c>
       <c r="CJ10" t="n">
         <v>0</v>
@@ -3190,40 +3190,40 @@
         <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.3394771640900471</v>
+        <v>0.3395612892721352</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.3300159213007354</v>
+        <v>0.3300119264754423</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.6572826431246881</v>
+        <v>0.6572475429822271</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.6578532707197059</v>
+        <v>0.6578195498551507</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.445828112256773</v>
+        <v>0.4458191310813917</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.5181445603584338</v>
+        <v>0.5181804171691646</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.2590722801792169</v>
+        <v>0.2590902085845823</v>
       </c>
       <c r="CS10" t="n">
-        <v>158.2235920090894</v>
+        <v>157.096684772729</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.001001069725722618</v>
+        <v>0.000969022366597186</v>
       </c>
       <c r="CU10" t="n">
-        <v>1.100981768672965e-06</v>
+        <v>1.057347735839581e-06</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.03780149842077217</v>
+        <v>0.03658788696022263</v>
       </c>
       <c r="CW10" t="n">
-        <v>7.000001147389408</v>
+        <v>7.000001147389414</v>
       </c>
     </row>
     <row r="11">
@@ -3234,67 +3234,67 @@
         <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>15.18457686798522</v>
+        <v>15.18210945776909</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1692161091822905</v>
+        <v>0.1691454661633685</v>
       </c>
       <c r="E11" t="n">
-        <v>6787.266021290738</v>
+        <v>6787.649000190834</v>
       </c>
       <c r="F11" t="n">
-        <v>2806.298180049048</v>
+        <v>2806.124050928334</v>
       </c>
       <c r="G11" t="n">
-        <v>48.17679279054185</v>
+        <v>48.17380344941293</v>
       </c>
       <c r="H11" t="n">
-        <v>1439.448708393199</v>
+        <v>1439.014076523174</v>
       </c>
       <c r="I11" t="n">
-        <v>3128.759845631711</v>
+        <v>3127.613976706062</v>
       </c>
       <c r="J11" t="n">
-        <v>323.4416601324345</v>
+        <v>323.4325039623366</v>
       </c>
       <c r="K11" t="n">
-        <v>7735.413320423291</v>
+        <v>7736.862194401424</v>
       </c>
       <c r="L11" t="n">
-        <v>1.370647096031379</v>
+        <v>1.358526927444476</v>
       </c>
       <c r="M11" t="n">
-        <v>0.006319512843976458</v>
+        <v>0.006076846935671611</v>
       </c>
       <c r="N11" t="n">
-        <v>363.2924223603287</v>
+        <v>321.4669372475813</v>
       </c>
       <c r="O11" t="n">
-        <v>41914.49186133759</v>
+        <v>41903.39183835324</v>
       </c>
       <c r="P11" t="n">
-        <v>44.37751950856357</v>
+        <v>44.34219034021154</v>
       </c>
       <c r="Q11" t="n">
-        <v>172.670859326891</v>
+        <v>172.7310643858362</v>
       </c>
       <c r="R11" t="n">
-        <v>1.723282550362085</v>
+        <v>1.723891802282252</v>
       </c>
       <c r="S11" t="n">
-        <v>1.723282550362085</v>
+        <v>1.723891802282252</v>
       </c>
       <c r="T11" t="n">
-        <v>2.584918577762732</v>
+        <v>2.585836675117023</v>
       </c>
       <c r="U11" t="n">
-        <v>1515.022355840441</v>
+        <v>1515.030865353336</v>
       </c>
       <c r="V11" t="n">
-        <v>805.3706589262076</v>
+        <v>805.5356902951908</v>
       </c>
       <c r="W11" t="n">
-        <v>308.2772530383598</v>
+        <v>308.3584503352604</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -3303,31 +3303,31 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>318.4867540559255</v>
+        <v>318.6538356125903</v>
       </c>
       <c r="AA11" t="n">
-        <v>307.9784396698512</v>
+        <v>308.0571534422016</v>
       </c>
       <c r="AB11" t="n">
-        <v>612.9261820211962</v>
+        <v>613.0567024857893</v>
       </c>
       <c r="AC11" t="n">
-        <v>613.5024582829541</v>
+        <v>613.634414796021</v>
       </c>
       <c r="AD11" t="n">
-        <v>441.1725190059846</v>
+        <v>441.1416620933739</v>
       </c>
       <c r="AE11" t="n">
-        <v>590.3300800424595</v>
+        <v>590.1708743456609</v>
       </c>
       <c r="AF11" t="n">
-        <v>295.1650400212297</v>
+        <v>295.0854371728304</v>
       </c>
       <c r="AG11" t="n">
-        <v>180266.5759353289</v>
+        <v>178922.0216302749</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.000001147389408</v>
+        <v>7.000001147389415</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
@@ -3357,13 +3357,13 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>15.96628467593207</v>
+        <v>15.45493067857844</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.06537918883941707</v>
+        <v>0.06276637398079818</v>
       </c>
       <c r="AT11" t="n">
-        <v>454.0589512155018</v>
+        <v>439.4815205821806</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3420,73 +3420,73 @@
         <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>39.57994606815165</v>
+        <v>51.09746097956229</v>
       </c>
       <c r="BN11" t="n">
-        <v>1873.98422558852</v>
+        <v>1936.80436009985</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.01518457686798523</v>
+        <v>0.01518210945776909</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.0001692161091822905</v>
+        <v>0.0001691454661633685</v>
       </c>
       <c r="BQ11" t="n">
-        <v>6.787266021290738</v>
+        <v>6.787649000190834</v>
       </c>
       <c r="BR11" t="n">
-        <v>2.806298180049049</v>
+        <v>2.806124050928335</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.04817679279054184</v>
+        <v>0.04817380344941293</v>
       </c>
       <c r="BT11" t="n">
-        <v>1.4394487083932</v>
+        <v>1.439014076523174</v>
       </c>
       <c r="BU11" t="n">
-        <v>3.128759845631711</v>
+        <v>3.127613976706061</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.3234416601324345</v>
+        <v>0.3234325039623366</v>
       </c>
       <c r="BW11" t="n">
-        <v>7.735413320423291</v>
+        <v>7.736862194401425</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.001370647096031379</v>
+        <v>0.001358526927444476</v>
       </c>
       <c r="BY11" t="n">
-        <v>6.319512843976459e-06</v>
+        <v>6.07684693567161e-06</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.3632924223603287</v>
+        <v>0.3214669372475813</v>
       </c>
       <c r="CA11" t="n">
-        <v>41.91449186133759</v>
+        <v>41.90339183835324</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.04437751950856356</v>
+        <v>0.04434219034021154</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.1726708593268911</v>
+        <v>0.1727310643858362</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.001723282550362084</v>
+        <v>0.001723891802282252</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.001723282550362084</v>
+        <v>0.001723891802282252</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.002584918577762732</v>
+        <v>0.002585836675117023</v>
       </c>
       <c r="CG11" t="n">
-        <v>1.515022355840441</v>
+        <v>1.515030865353336</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.8053706589262075</v>
+        <v>0.8055356902951908</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.3082772530383598</v>
+        <v>0.3083584503352604</v>
       </c>
       <c r="CJ11" t="n">
         <v>0</v>
@@ -3495,40 +3495,40 @@
         <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.3184867540559255</v>
+        <v>0.3186538356125904</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.3079784396698512</v>
+        <v>0.3080571534422016</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.6129261820211962</v>
+        <v>0.6130567024857893</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.6135024582829541</v>
+        <v>0.6136344147960211</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.4411725190059846</v>
+        <v>0.4411416620933739</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.5903300800424596</v>
+        <v>0.5901708743456611</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.2951650400212298</v>
+        <v>0.2950854371728305</v>
       </c>
       <c r="CS11" t="n">
-        <v>180.2665759353289</v>
+        <v>178.9220216302749</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.000997930214628803</v>
+        <v>0.0009659693912633245</v>
       </c>
       <c r="CU11" t="n">
-        <v>1.02158813517096e-06</v>
+        <v>9.807613720014218e-07</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.03780453688923225</v>
+        <v>0.03659083322222523</v>
       </c>
       <c r="CW11" t="n">
-        <v>7.000001147389408</v>
+        <v>7.000001147389415</v>
       </c>
     </row>
     <row r="12">
@@ -3539,67 +3539,67 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>15.21796094188913</v>
+        <v>15.22173465033227</v>
       </c>
       <c r="D12" t="n">
-        <v>0.175080575394905</v>
+        <v>0.1748217671303749</v>
       </c>
       <c r="E12" t="n">
-        <v>6476.352220310955</v>
+        <v>6474.841071350744</v>
       </c>
       <c r="F12" t="n">
-        <v>2877.276420553585</v>
+        <v>2877.551388076943</v>
       </c>
       <c r="G12" t="n">
-        <v>49.39530335714331</v>
+        <v>49.40002382964749</v>
       </c>
       <c r="H12" t="n">
-        <v>1364.033142913639</v>
+        <v>1362.98973666657</v>
       </c>
       <c r="I12" t="n">
-        <v>3075.031988938976</v>
+        <v>3073.304282494047</v>
       </c>
       <c r="J12" t="n">
-        <v>307.5568445155466</v>
+        <v>307.4463580729582</v>
       </c>
       <c r="K12" t="n">
-        <v>7754.901212072507</v>
+        <v>7756.859355930235</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36621634059026</v>
+        <v>1.354093527467426</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005868207023900688</v>
+        <v>0.005635231629386142</v>
       </c>
       <c r="N12" t="n">
-        <v>363.3175435893349</v>
+        <v>321.4890231950536</v>
       </c>
       <c r="O12" t="n">
-        <v>46681.1980194454</v>
+        <v>46699.45867095867</v>
       </c>
       <c r="P12" t="n">
-        <v>50.45152155790834</v>
+        <v>50.48451872912177</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.8152392171817</v>
+        <v>167.0210250686755</v>
       </c>
       <c r="R12" t="n">
-        <v>1.665850075121574</v>
+        <v>1.668039670753845</v>
       </c>
       <c r="S12" t="n">
-        <v>1.665850075121574</v>
+        <v>1.668039670753845</v>
       </c>
       <c r="T12" t="n">
-        <v>2.498776991549482</v>
+        <v>2.502059351293923</v>
       </c>
       <c r="U12" t="n">
-        <v>1510.87743593013</v>
+        <v>1510.856119577124</v>
       </c>
       <c r="V12" t="n">
-        <v>752.4931993063268</v>
+        <v>752.2084692647304</v>
       </c>
       <c r="W12" t="n">
-        <v>287.8071898243456</v>
+        <v>287.7160815337079</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -3608,31 +3608,31 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>298.8565582911376</v>
+        <v>298.8787720180042</v>
       </c>
       <c r="AA12" t="n">
-        <v>287.4786173363681</v>
+        <v>287.3843182954442</v>
       </c>
       <c r="AB12" t="n">
-        <v>571.7012703159569</v>
+        <v>571.4771985685461</v>
       </c>
       <c r="AC12" t="n">
-        <v>572.2796730358515</v>
+        <v>572.0576510597432</v>
       </c>
       <c r="AD12" t="n">
-        <v>436.1948548149673</v>
+        <v>436.1952477977041</v>
       </c>
       <c r="AE12" t="n">
-        <v>658.8327532017664</v>
+        <v>659.0951586521926</v>
       </c>
       <c r="AF12" t="n">
-        <v>329.4163766008832</v>
+        <v>329.5475793260963</v>
       </c>
       <c r="AG12" t="n">
-        <v>201184.944743432</v>
+        <v>199817.7872866493</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.000001147389408</v>
+        <v>7.000001147389414</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
@@ -3662,13 +3662,13 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>15.91619684234254</v>
+        <v>15.40565078461229</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.06071509730329661</v>
+        <v>0.05820986308798127</v>
       </c>
       <c r="AT12" t="n">
-        <v>454.0952619280882</v>
+        <v>439.5171593936003</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3725,73 +3725,73 @@
         <v>0</v>
       </c>
       <c r="BM12" t="n">
-        <v>39.57994606815164</v>
+        <v>51.09746097956228</v>
       </c>
       <c r="BN12" t="n">
-        <v>1873.749303924197</v>
+        <v>1936.546165990995</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.01521796094188913</v>
+        <v>0.01522173465033227</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.0001750805753949049</v>
+        <v>0.0001748217671303749</v>
       </c>
       <c r="BQ12" t="n">
-        <v>6.476352220310956</v>
+        <v>6.474841071350744</v>
       </c>
       <c r="BR12" t="n">
-        <v>2.877276420553585</v>
+        <v>2.877551388076943</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.04939530335714331</v>
+        <v>0.04940002382964749</v>
       </c>
       <c r="BT12" t="n">
-        <v>1.364033142913639</v>
+        <v>1.36298973666657</v>
       </c>
       <c r="BU12" t="n">
-        <v>3.075031988938976</v>
+        <v>3.073304282494047</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.3075568445155465</v>
+        <v>0.3074463580729582</v>
       </c>
       <c r="BW12" t="n">
-        <v>7.754901212072507</v>
+        <v>7.756859355930234</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.00136621634059026</v>
+        <v>0.001354093527467425</v>
       </c>
       <c r="BY12" t="n">
-        <v>5.868207023900688e-06</v>
+        <v>5.635231629386142e-06</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.363317543589335</v>
+        <v>0.3214890231950536</v>
       </c>
       <c r="CA12" t="n">
-        <v>46.6811980194454</v>
+        <v>46.69945867095868</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.05045152155790834</v>
+        <v>0.05048451872912177</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.1668152392171817</v>
+        <v>0.1670210250686755</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.001665850075121574</v>
+        <v>0.001668039670753844</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.001665850075121574</v>
+        <v>0.001668039670753844</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.002498776991549481</v>
+        <v>0.002502059351293923</v>
       </c>
       <c r="CG12" t="n">
-        <v>1.51087743593013</v>
+        <v>1.510856119577124</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.7524931993063269</v>
+        <v>0.7522084692647303</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.2878071898243457</v>
+        <v>0.2877160815337079</v>
       </c>
       <c r="CJ12" t="n">
         <v>0</v>
@@ -3800,40 +3800,40 @@
         <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.2988565582911376</v>
+        <v>0.2988787720180042</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.287478617336368</v>
+        <v>0.2873843182954442</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.5717012703159569</v>
+        <v>0.5714771985685461</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.5722796730358515</v>
+        <v>0.5720576510597432</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.4361948548149673</v>
+        <v>0.4361952477977041</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.6588327532017664</v>
+        <v>0.6590951586521926</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.3294163766008832</v>
+        <v>0.3295475793260963</v>
       </c>
       <c r="CS12" t="n">
-        <v>201.184944743432</v>
+        <v>199.8177872866493</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.0009947996076316952</v>
+        <v>0.0009628892823863578</v>
       </c>
       <c r="CU12" t="n">
-        <v>9.487089719504577e-07</v>
+        <v>9.095632193704336e-07</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.03780756008626376</v>
+        <v>0.03659380047737436</v>
       </c>
       <c r="CW12" t="n">
-        <v>7.000001147389408</v>
+        <v>7.000001147389414</v>
       </c>
     </row>
     <row r="13">
@@ -3844,67 +3844,67 @@
         <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>15.2487252802981</v>
+        <v>15.26143765598029</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1804209653172437</v>
+        <v>0.1799081775354539</v>
       </c>
       <c r="E13" t="n">
-        <v>6177.761718793759</v>
+        <v>6176.51307266485</v>
       </c>
       <c r="F13" t="n">
-        <v>2945.230132813177</v>
+        <v>2945.429008922642</v>
       </c>
       <c r="G13" t="n">
-        <v>50.56189069207196</v>
+        <v>50.56530487420911</v>
       </c>
       <c r="H13" t="n">
-        <v>1292.290251394484</v>
+        <v>1291.293204208794</v>
       </c>
       <c r="I13" t="n">
-        <v>3024.222208817774</v>
+        <v>3022.441991849382</v>
       </c>
       <c r="J13" t="n">
-        <v>292.3083860029753</v>
+        <v>292.2076378515293</v>
       </c>
       <c r="K13" t="n">
-        <v>7771.994711191869</v>
+        <v>7774.021020761062</v>
       </c>
       <c r="L13" t="n">
-        <v>1.361871653427965</v>
+        <v>1.349729677044267</v>
       </c>
       <c r="M13" t="n">
-        <v>0.005446606711634308</v>
+        <v>0.005228103511734359</v>
       </c>
       <c r="N13" t="n">
-        <v>363.3421462717612</v>
+        <v>321.5105030876692</v>
       </c>
       <c r="O13" t="n">
-        <v>51252.01330677983</v>
+        <v>51265.57693983255</v>
       </c>
       <c r="P13" t="n">
-        <v>56.02752374747833</v>
+        <v>56.04493144309713</v>
       </c>
       <c r="Q13" t="n">
-        <v>160.4831007767607</v>
+        <v>160.7047711412705</v>
       </c>
       <c r="R13" t="n">
-        <v>1.603180524424533</v>
+        <v>1.605528497951572</v>
       </c>
       <c r="S13" t="n">
-        <v>1.603180524424533</v>
+        <v>1.605528497951572</v>
       </c>
       <c r="T13" t="n">
-        <v>2.4047722128241</v>
+        <v>2.408293523320624</v>
       </c>
       <c r="U13" t="n">
-        <v>1506.916914651163</v>
+        <v>1506.898502359072</v>
       </c>
       <c r="V13" t="n">
-        <v>702.5941640048572</v>
+        <v>702.3833537526709</v>
       </c>
       <c r="W13" t="n">
-        <v>268.4900189694978</v>
+        <v>268.428773835405</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -3913,31 +3913,31 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>280.252982009684</v>
+        <v>280.308478812619</v>
       </c>
       <c r="AA13" t="n">
-        <v>268.1344966088147</v>
+        <v>268.0698776520157</v>
       </c>
       <c r="AB13" t="n">
-        <v>532.8283032605884</v>
+        <v>532.6628063378812</v>
       </c>
       <c r="AC13" t="n">
-        <v>533.4063374818106</v>
+        <v>533.2430328902639</v>
       </c>
       <c r="AD13" t="n">
-        <v>430.9243840720687</v>
+        <v>430.9104524232339</v>
       </c>
       <c r="AE13" t="n">
-        <v>724.5226536895749</v>
+        <v>724.7176418631886</v>
       </c>
       <c r="AF13" t="n">
-        <v>362.2613268447874</v>
+        <v>362.3588209315943</v>
       </c>
       <c r="AG13" t="n">
-        <v>221244.3891708919</v>
+        <v>219712.5463655823</v>
       </c>
       <c r="AH13" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389415</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -3967,13 +3967,13 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>15.8670708703702</v>
+        <v>15.3575682311312</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.05635769593999239</v>
+        <v>0.05400892188085141</v>
       </c>
       <c r="AT13" t="n">
-        <v>454.130833550373</v>
+        <v>439.55185933002</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4030,73 +4030,73 @@
         <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>39.57994606815164</v>
+        <v>51.09746097956229</v>
       </c>
       <c r="BN13" t="n">
-        <v>1873.522961455025</v>
+        <v>1936.313311921859</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.01524872528029809</v>
+        <v>0.01526143765598029</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.0001804209653172437</v>
+        <v>0.0001799081775354539</v>
       </c>
       <c r="BQ13" t="n">
-        <v>6.17776171879376</v>
+        <v>6.17651307266485</v>
       </c>
       <c r="BR13" t="n">
-        <v>2.945230132813176</v>
+        <v>2.945429008922643</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.05056189069207195</v>
+        <v>0.05056530487420912</v>
       </c>
       <c r="BT13" t="n">
-        <v>1.292290251394484</v>
+        <v>1.291293204208794</v>
       </c>
       <c r="BU13" t="n">
-        <v>3.024222208817773</v>
+        <v>3.022441991849382</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.2923083860029753</v>
+        <v>0.2922076378515294</v>
       </c>
       <c r="BW13" t="n">
-        <v>7.771994711191869</v>
+        <v>7.774021020761062</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.001361871653427965</v>
+        <v>0.001349729677044267</v>
       </c>
       <c r="BY13" t="n">
-        <v>5.446606711634308e-06</v>
+        <v>5.228103511734359e-06</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.3633421462717612</v>
+        <v>0.3215105030876692</v>
       </c>
       <c r="CA13" t="n">
-        <v>51.25201330677982</v>
+        <v>51.26557693983255</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.05602752374747832</v>
+        <v>0.05604493144309713</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.1604831007767606</v>
+        <v>0.1607047711412705</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.001603180524424533</v>
+        <v>0.001605528497951573</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.001603180524424533</v>
+        <v>0.001605528497951573</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.002404772212824101</v>
+        <v>0.002408293523320624</v>
       </c>
       <c r="CG13" t="n">
-        <v>1.506916914651163</v>
+        <v>1.506898502359072</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.7025941640048573</v>
+        <v>0.7023833537526709</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.2684900189694978</v>
+        <v>0.268428773835405</v>
       </c>
       <c r="CJ13" t="n">
         <v>0</v>
@@ -4105,40 +4105,40 @@
         <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.280252982009684</v>
+        <v>0.2803084788126189</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.2681344966088148</v>
+        <v>0.2680698776520158</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.5328283032605885</v>
+        <v>0.5326628063378811</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.5334063374818107</v>
+        <v>0.5332430328902638</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.4309243840720687</v>
+        <v>0.4309104524232339</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.7245226536895749</v>
+        <v>0.7247176418631885</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.3622613268447875</v>
+        <v>0.3623588209315943</v>
       </c>
       <c r="CS13" t="n">
-        <v>221.2443891708919</v>
+        <v>219.7125463655823</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0009917291192401087</v>
+        <v>0.0009598840100960784</v>
       </c>
       <c r="CU13" t="n">
-        <v>8.806220223882206e-07</v>
+        <v>8.439210514277318e-07</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.0378105217473064</v>
+        <v>0.03659668956264164</v>
       </c>
       <c r="CW13" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389415</v>
       </c>
     </row>
     <row r="14">
@@ -4149,67 +4149,67 @@
         <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>15.27710816556428</v>
+        <v>15.28121597113739</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1854285867438913</v>
+        <v>0.1852150904378202</v>
       </c>
       <c r="E14" t="n">
-        <v>5894.307839296554</v>
+        <v>5893.902615094171</v>
       </c>
       <c r="F14" t="n">
-        <v>3009.437363503589</v>
+        <v>3009.430634862034</v>
       </c>
       <c r="G14" t="n">
-        <v>51.66416074684297</v>
+        <v>51.66404523368315</v>
       </c>
       <c r="H14" t="n">
-        <v>1225.009081200842</v>
+        <v>1224.227400858701</v>
       </c>
       <c r="I14" t="n">
-        <v>2976.950764397088</v>
+        <v>2975.265595472121</v>
       </c>
       <c r="J14" t="n">
-        <v>277.8477507138896</v>
+        <v>277.7872508839384</v>
       </c>
       <c r="K14" t="n">
-        <v>7786.178670611592</v>
+        <v>7788.175723621393</v>
       </c>
       <c r="L14" t="n">
-        <v>1.357711538165711</v>
+        <v>1.345598438811233</v>
       </c>
       <c r="M14" t="n">
-        <v>0.005060275321172864</v>
+        <v>0.004856666331730587</v>
       </c>
       <c r="N14" t="n">
-        <v>363.3656870973522</v>
+        <v>321.5308547910361</v>
       </c>
       <c r="O14" t="n">
-        <v>55580.86952691393</v>
+        <v>55580.8815263373</v>
       </c>
       <c r="P14" t="n">
-        <v>60.96778092241609</v>
+        <v>60.9548429056735</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.0255555154534</v>
+        <v>154.2031302233381</v>
       </c>
       <c r="R14" t="n">
-        <v>1.538907643489953</v>
+        <v>1.540772892706431</v>
       </c>
       <c r="S14" t="n">
-        <v>1.538907643489953</v>
+        <v>1.540772892706431</v>
       </c>
       <c r="T14" t="n">
-        <v>2.308360869982567</v>
+        <v>2.311159373698651</v>
       </c>
       <c r="U14" t="n">
-        <v>1503.174922370967</v>
+        <v>1503.170625663501</v>
       </c>
       <c r="V14" t="n">
-        <v>656.3020394172447</v>
+        <v>656.2906839912778</v>
       </c>
       <c r="W14" t="n">
-        <v>250.5716067337831</v>
+        <v>250.5882465762221</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -4218,31 +4218,31 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>262.900732598148</v>
+        <v>263.0318059990715</v>
       </c>
       <c r="AA14" t="n">
-        <v>250.1925411126715</v>
+        <v>250.2057707202547</v>
       </c>
       <c r="AB14" t="n">
-        <v>496.80653370262</v>
+        <v>496.7977529180089</v>
       </c>
       <c r="AC14" t="n">
-        <v>497.381378909258</v>
+        <v>497.3748357082283</v>
       </c>
       <c r="AD14" t="n">
-        <v>425.2510109042155</v>
+        <v>425.225037886241</v>
       </c>
       <c r="AE14" t="n">
-        <v>786.7382037607611</v>
+        <v>786.7385917083823</v>
       </c>
       <c r="AF14" t="n">
-        <v>393.3691018803805</v>
+        <v>393.3692958541911</v>
       </c>
       <c r="AG14" t="n">
-        <v>240242.8860465027</v>
+        <v>238515.4290765182</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389415</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
@@ -4272,13 +4272,13 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>15.82001783675556</v>
+        <v>15.31199765906937</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.05236428899270287</v>
+        <v>0.0501755015467283</v>
       </c>
       <c r="AT14" t="n">
-        <v>454.1648719779912</v>
+        <v>439.5847259651566</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4335,73 +4335,73 @@
         <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>39.57994606815164</v>
+        <v>51.09746097956229</v>
       </c>
       <c r="BN14" t="n">
-        <v>1873.305371401701</v>
+        <v>1936.087443867771</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.01527710816556428</v>
+        <v>0.01528121597113739</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.0001854285867438913</v>
+        <v>0.0001852150904378202</v>
       </c>
       <c r="BQ14" t="n">
-        <v>5.894307839296555</v>
+        <v>5.893902615094172</v>
       </c>
       <c r="BR14" t="n">
-        <v>3.00943736350359</v>
+        <v>3.009430634862035</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.05166416074684297</v>
+        <v>0.05166404523368315</v>
       </c>
       <c r="BT14" t="n">
-        <v>1.225009081200842</v>
+        <v>1.224227400858702</v>
       </c>
       <c r="BU14" t="n">
-        <v>2.976950764397087</v>
+        <v>2.975265595472122</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.2778477507138897</v>
+        <v>0.2777872508839384</v>
       </c>
       <c r="BW14" t="n">
-        <v>7.786178670611592</v>
+        <v>7.788175723621392</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.001357711538165711</v>
+        <v>0.001345598438811233</v>
       </c>
       <c r="BY14" t="n">
-        <v>5.060275321172864e-06</v>
+        <v>4.856666331730586e-06</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.3633656870973522</v>
+        <v>0.321530854791036</v>
       </c>
       <c r="CA14" t="n">
-        <v>55.58086952691393</v>
+        <v>55.58088152633729</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.06096778092241609</v>
+        <v>0.06095484290567351</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.1540255555154534</v>
+        <v>0.1542031302233382</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.001538907643489953</v>
+        <v>0.001540772892706431</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.001538907643489953</v>
+        <v>0.001540772892706431</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.002308360869982567</v>
+        <v>0.002311159373698651</v>
       </c>
       <c r="CG14" t="n">
-        <v>1.503174922370967</v>
+        <v>1.5031706256635</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.6563020394172449</v>
+        <v>0.6562906839912779</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.2505716067337831</v>
+        <v>0.2505882465762221</v>
       </c>
       <c r="CJ14" t="n">
         <v>0</v>
@@ -4410,40 +4410,40 @@
         <v>0</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.2629007325981479</v>
+        <v>0.2630318059990715</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.2501925411126716</v>
+        <v>0.2502057707202547</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.49680653370262</v>
+        <v>0.4967977529180089</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.497381378909258</v>
+        <v>0.4973748357082282</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.4252510109042155</v>
+        <v>0.425225037886241</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.786738203760761</v>
+        <v>0.7867385917083822</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.3933691018803805</v>
+        <v>0.3933692958541911</v>
       </c>
       <c r="CS14" t="n">
-        <v>240.2428860465027</v>
+        <v>238.5154290765182</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.0009887881943545108</v>
+        <v>0.0009570357425321806</v>
       </c>
       <c r="CU14" t="n">
-        <v>8.182226988621898e-07</v>
+        <v>7.840216124780976e-07</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.03781335575595021</v>
+        <v>0.03659942600890511</v>
       </c>
       <c r="CW14" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389415</v>
       </c>
     </row>
     <row r="15">
@@ -4454,67 +4454,67 @@
         <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>15.30378354445538</v>
+        <v>15.30365616331389</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1903712159028112</v>
+        <v>0.1903073086913819</v>
       </c>
       <c r="E15" t="n">
-        <v>5625.253020967812</v>
+        <v>5624.385543868554</v>
       </c>
       <c r="F15" t="n">
-        <v>3070.074449281413</v>
+        <v>3070.188522784513</v>
       </c>
       <c r="G15" t="n">
-        <v>52.70514076019612</v>
+        <v>52.70709910359641</v>
       </c>
       <c r="H15" t="n">
-        <v>1161.899109027008</v>
+        <v>1160.960089702653</v>
       </c>
       <c r="I15" t="n">
-        <v>2932.989257436748</v>
+        <v>2931.11185982925</v>
       </c>
       <c r="J15" t="n">
-        <v>264.1424874789162</v>
+        <v>264.0539558807617</v>
       </c>
       <c r="K15" t="n">
-        <v>7797.693948342243</v>
+        <v>7799.890155194949</v>
       </c>
       <c r="L15" t="n">
-        <v>1.353779457524659</v>
+        <v>1.341682741470352</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004705870402902955</v>
+        <v>0.00451361785653112</v>
       </c>
       <c r="N15" t="n">
-        <v>363.3879339641597</v>
+        <v>321.5501245019721</v>
       </c>
       <c r="O15" t="n">
-        <v>59679.1781437161</v>
+        <v>59686.70567623012</v>
       </c>
       <c r="P15" t="n">
-        <v>65.30373231827707</v>
+        <v>65.31792716721206</v>
       </c>
       <c r="Q15" t="n">
-        <v>147.7511432420578</v>
+        <v>147.8479511828941</v>
       </c>
       <c r="R15" t="n">
-        <v>1.476291612326426</v>
+        <v>1.477315902291278</v>
       </c>
       <c r="S15" t="n">
-        <v>1.476291612326426</v>
+        <v>1.477315902291278</v>
       </c>
       <c r="T15" t="n">
-        <v>2.214437014612446</v>
+        <v>2.21597368516888</v>
       </c>
       <c r="U15" t="n">
-        <v>1499.635979641285</v>
+        <v>1499.627304361596</v>
       </c>
       <c r="V15" t="n">
-        <v>613.3625481859704</v>
+        <v>613.2439869192644</v>
       </c>
       <c r="W15" t="n">
-        <v>233.9547908868433</v>
+        <v>233.9299070999579</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -4523,31 +4523,31 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>246.7200136611604</v>
+        <v>246.8180647751307</v>
       </c>
       <c r="AA15" t="n">
-        <v>233.5553508561439</v>
+        <v>233.5267595982724</v>
       </c>
       <c r="AB15" t="n">
-        <v>463.435043985726</v>
+        <v>463.3402746950279</v>
       </c>
       <c r="AC15" t="n">
-        <v>464.0043259166453</v>
+        <v>463.9120363532002</v>
       </c>
       <c r="AD15" t="n">
-        <v>419.1966935656224</v>
+        <v>419.1980075216139</v>
       </c>
       <c r="AE15" t="n">
-        <v>845.6430842824662</v>
+        <v>845.7513872530697</v>
       </c>
       <c r="AF15" t="n">
-        <v>422.8215421412331</v>
+        <v>422.8756936265348</v>
       </c>
       <c r="AG15" t="n">
-        <v>258230.4178977743</v>
+        <v>256406.33006789</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.000001147389408</v>
+        <v>7.000001147389414</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
@@ -4577,13 +4577,13 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>15.77553168858141</v>
+        <v>15.26883085917746</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.04870039327200995</v>
+        <v>0.04663506508402102</v>
       </c>
       <c r="AT15" t="n">
-        <v>454.1970355008575</v>
+        <v>439.6158420378578</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4640,73 +4640,73 @@
         <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>39.57994606815165</v>
+        <v>51.09746097956228</v>
       </c>
       <c r="BN15" t="n">
-        <v>1873.099045406329</v>
+        <v>1935.884850203142</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.01530378354445538</v>
+        <v>0.01530365616331389</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.0001903712159028112</v>
+        <v>0.0001903073086913819</v>
       </c>
       <c r="BQ15" t="n">
-        <v>5.625253020967811</v>
+        <v>5.624385543868554</v>
       </c>
       <c r="BR15" t="n">
-        <v>3.070074449281413</v>
+        <v>3.070188522784513</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.05270514076019612</v>
+        <v>0.05270709910359641</v>
       </c>
       <c r="BT15" t="n">
-        <v>1.161899109027008</v>
+        <v>1.160960089702653</v>
       </c>
       <c r="BU15" t="n">
-        <v>2.932989257436748</v>
+        <v>2.93111185982925</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.2641424874789162</v>
+        <v>0.2640539558807616</v>
       </c>
       <c r="BW15" t="n">
-        <v>7.797693948342244</v>
+        <v>7.79989015519495</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.001353779457524659</v>
+        <v>0.001341682741470352</v>
       </c>
       <c r="BY15" t="n">
-        <v>4.705870402902954e-06</v>
+        <v>4.51361785653112e-06</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.3633879339641597</v>
+        <v>0.3215501245019721</v>
       </c>
       <c r="CA15" t="n">
-        <v>59.6791781437161</v>
+        <v>59.68670567623012</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.06530373231827706</v>
+        <v>0.06531792716721206</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.1477511432420578</v>
+        <v>0.1478479511828941</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.001476291612326426</v>
+        <v>0.001477315902291278</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.001476291612326426</v>
+        <v>0.001477315902291278</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.002214437014612446</v>
+        <v>0.00221597368516888</v>
       </c>
       <c r="CG15" t="n">
-        <v>1.499635979641285</v>
+        <v>1.499627304361596</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.6133625481859704</v>
+        <v>0.6132439869192645</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.2339547908868433</v>
+        <v>0.233929907099958</v>
       </c>
       <c r="CJ15" t="n">
         <v>0</v>
@@ -4715,40 +4715,40 @@
         <v>0</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.2467200136611604</v>
+        <v>0.2468180647751307</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.233555350856144</v>
+        <v>0.2335267595982724</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.463435043985726</v>
+        <v>0.4633402746950279</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.4640043259166452</v>
+        <v>0.4639120363532001</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.4191966935656224</v>
+        <v>0.4191980075216138</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.8456430842824663</v>
+        <v>0.8457513872530695</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.4228215421412331</v>
+        <v>0.4228756936265348</v>
       </c>
       <c r="CS15" t="n">
-        <v>258.2304178977743</v>
+        <v>256.40633006789</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.0009860077058253063</v>
+        <v>0.0009543377163629546</v>
       </c>
       <c r="CU15" t="n">
-        <v>7.609721813319555e-07</v>
+        <v>7.287002181960109e-07</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.03781603366172309</v>
+        <v>0.03660201670492626</v>
       </c>
       <c r="CW15" t="n">
-        <v>7.000001147389408</v>
+        <v>7.000001147389414</v>
       </c>
     </row>
     <row r="16">
@@ -4759,67 +4759,67 @@
         <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>15.32923123379139</v>
+        <v>15.3297583548105</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1953786216284694</v>
+        <v>0.1952063428106628</v>
       </c>
       <c r="E16" t="n">
-        <v>5367.969857572683</v>
+        <v>5367.092683618939</v>
       </c>
       <c r="F16" t="n">
-        <v>3127.801954838658</v>
+        <v>3127.92100391138</v>
       </c>
       <c r="G16" t="n">
-        <v>53.69617089851788</v>
+        <v>53.69821465942238</v>
       </c>
       <c r="H16" t="n">
-        <v>1102.1457095439</v>
+        <v>1101.188530963023</v>
       </c>
       <c r="I16" t="n">
-        <v>2891.69617218741</v>
+        <v>2889.741252931238</v>
       </c>
       <c r="J16" t="n">
-        <v>251.0579128249193</v>
+        <v>250.9653621447951</v>
       </c>
       <c r="K16" t="n">
-        <v>7807.11843457682</v>
+        <v>7809.406634536671</v>
       </c>
       <c r="L16" t="n">
-        <v>1.350049721085411</v>
+        <v>1.337948887565962</v>
       </c>
       <c r="M16" t="n">
-        <v>0.004376477437720957</v>
+        <v>0.004196057937141668</v>
       </c>
       <c r="N16" t="n">
-        <v>363.4090365578393</v>
+        <v>321.5685054120374</v>
       </c>
       <c r="O16" t="n">
-        <v>63589.27704015115</v>
+        <v>63596.99137828266</v>
       </c>
       <c r="P16" t="n">
-        <v>69.1582147471304</v>
+        <v>69.17754535673953</v>
       </c>
       <c r="Q16" t="n">
-        <v>141.720254583601</v>
+        <v>141.7640643342654</v>
       </c>
       <c r="R16" t="n">
-        <v>1.4160253309986</v>
+        <v>1.416492104300539</v>
       </c>
       <c r="S16" t="n">
-        <v>1.4160253309986</v>
+        <v>1.416492104300539</v>
       </c>
       <c r="T16" t="n">
-        <v>2.124037970356073</v>
+        <v>2.124738135178878</v>
       </c>
       <c r="U16" t="n">
-        <v>1496.261799217283</v>
+        <v>1496.254157204701</v>
       </c>
       <c r="V16" t="n">
-        <v>573.1054875649511</v>
+        <v>572.9874024645954</v>
       </c>
       <c r="W16" t="n">
-        <v>218.3796432701421</v>
+        <v>218.3550375076668</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -4828,31 +4828,31 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>231.4816737249111</v>
+        <v>231.583307672698</v>
       </c>
       <c r="AA16" t="n">
-        <v>217.9623637412466</v>
+        <v>217.9338769388138</v>
       </c>
       <c r="AB16" t="n">
-        <v>432.1826485193352</v>
+        <v>432.0874057931894</v>
       </c>
       <c r="AC16" t="n">
-        <v>432.744632528379</v>
+        <v>432.6520087473613</v>
       </c>
       <c r="AD16" t="n">
-        <v>412.8551492775529</v>
+        <v>412.8660642094002</v>
       </c>
       <c r="AE16" t="n">
-        <v>901.8451208660704</v>
+        <v>901.9561060163157</v>
       </c>
       <c r="AF16" t="n">
-        <v>450.9225604330352</v>
+        <v>450.9780530081579</v>
       </c>
       <c r="AG16" t="n">
-        <v>275392.5938363436</v>
+        <v>273445.9068132363</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.000001147389408</v>
+        <v>7.000001147389414</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
@@ -4882,13 +4882,13 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>15.73332556493833</v>
+        <v>15.22762825779906</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.04529468029747254</v>
+        <v>0.04335724821913348</v>
       </c>
       <c r="AT16" t="n">
-        <v>454.2275400274838</v>
+        <v>439.6455253745377</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4945,73 +4945,73 @@
         <v>0</v>
       </c>
       <c r="BM16" t="n">
-        <v>39.57994606815164</v>
+        <v>51.09746097956229</v>
       </c>
       <c r="BN16" t="n">
-        <v>1872.903249850579</v>
+        <v>1935.687019698711</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.01532923123379139</v>
+        <v>0.0153297583548105</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.0001953786216284694</v>
+        <v>0.0001952063428106628</v>
       </c>
       <c r="BQ16" t="n">
-        <v>5.367969857572683</v>
+        <v>5.367092683618939</v>
       </c>
       <c r="BR16" t="n">
-        <v>3.127801954838658</v>
+        <v>3.12792100391138</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.05369617089851787</v>
+        <v>0.05369821465942239</v>
       </c>
       <c r="BT16" t="n">
-        <v>1.1021457095439</v>
+        <v>1.101188530963023</v>
       </c>
       <c r="BU16" t="n">
-        <v>2.891696172187411</v>
+        <v>2.889741252931238</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.2510579128249193</v>
+        <v>0.250965362144795</v>
       </c>
       <c r="BW16" t="n">
-        <v>7.80711843457682</v>
+        <v>7.80940663453667</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.001350049721085411</v>
+        <v>0.001337948887565963</v>
       </c>
       <c r="BY16" t="n">
-        <v>4.376477437720957e-06</v>
+        <v>4.196057937141667e-06</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.3634090365578393</v>
+        <v>0.3215685054120374</v>
       </c>
       <c r="CA16" t="n">
-        <v>63.58927704015115</v>
+        <v>63.59699137828267</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.06915821474713039</v>
+        <v>0.06917754535673953</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.141720254583601</v>
+        <v>0.1417640643342655</v>
       </c>
       <c r="CD16" t="n">
-        <v>0.0014160253309986</v>
+        <v>0.001416492104300539</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.0014160253309986</v>
+        <v>0.001416492104300539</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.002124037970356073</v>
+        <v>0.002124738135178877</v>
       </c>
       <c r="CG16" t="n">
-        <v>1.496261799217283</v>
+        <v>1.496254157204701</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.5731054875649511</v>
+        <v>0.5729874024645955</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.2183796432701421</v>
+        <v>0.2183550375076668</v>
       </c>
       <c r="CJ16" t="n">
         <v>0</v>
@@ -5020,40 +5020,40 @@
         <v>0</v>
       </c>
       <c r="CL16" t="n">
-        <v>0.2314816737249111</v>
+        <v>0.231583307672698</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.2179623637412466</v>
+        <v>0.2179338769388138</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.4321826485193352</v>
+        <v>0.4320874057931894</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.4327446325283791</v>
+        <v>0.4326520087473613</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.4128551492775528</v>
+        <v>0.4128660642094002</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.9018451208660703</v>
+        <v>0.9019561060163157</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.4509225604330351</v>
+        <v>0.4509780530081579</v>
       </c>
       <c r="CS16" t="n">
-        <v>275.3925938363436</v>
+        <v>273.4459068132363</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.0009833697241733023</v>
+        <v>0.0009517624572045868</v>
       </c>
       <c r="CU16" t="n">
-        <v>7.07755920495027e-07</v>
+        <v>6.774824090142987e-07</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.03781857344097211</v>
+        <v>0.03660448811264437</v>
       </c>
       <c r="CW16" t="n">
-        <v>7.000001147389408</v>
+        <v>7.000001147389414</v>
       </c>
     </row>
     <row r="17">
@@ -5064,67 +5064,67 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>15.35335671636495</v>
+        <v>15.35556753846622</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2005311173236615</v>
+        <v>0.2002485436270739</v>
       </c>
       <c r="E17" t="n">
-        <v>5124.345193337481</v>
+        <v>5123.428866276683</v>
       </c>
       <c r="F17" t="n">
-        <v>3182.176054098527</v>
+        <v>3182.298461569731</v>
       </c>
       <c r="G17" t="n">
-        <v>54.62963183001719</v>
+        <v>54.63173324583159</v>
       </c>
       <c r="H17" t="n">
-        <v>1046.205258951041</v>
+        <v>1045.247936673616</v>
       </c>
       <c r="I17" t="n">
-        <v>2853.440391154824</v>
+        <v>2851.427562666177</v>
       </c>
       <c r="J17" t="n">
-        <v>238.6970590577057</v>
+        <v>238.5987390331193</v>
       </c>
       <c r="K17" t="n">
-        <v>7814.271269347782</v>
+        <v>7816.596279368468</v>
       </c>
       <c r="L17" t="n">
-        <v>1.346564723432308</v>
+        <v>1.334456224857043</v>
       </c>
       <c r="M17" t="n">
-        <v>0.004074297747710415</v>
+        <v>0.003905606957301611</v>
       </c>
       <c r="N17" t="n">
-        <v>363.4287576226986</v>
+        <v>321.5857535655362</v>
       </c>
       <c r="O17" t="n">
-        <v>67281.75173854586</v>
+        <v>67289.83274460502</v>
       </c>
       <c r="P17" t="n">
-        <v>72.4810866759917</v>
+        <v>72.49667302726445</v>
       </c>
       <c r="Q17" t="n">
-        <v>136.0379844704963</v>
+        <v>136.0438247579447</v>
       </c>
       <c r="R17" t="n">
-        <v>1.359188774912379</v>
+        <v>1.359254639029424</v>
       </c>
       <c r="S17" t="n">
-        <v>1.359188774912379</v>
+        <v>1.359254639029424</v>
       </c>
       <c r="T17" t="n">
-        <v>2.038783303963609</v>
+        <v>2.038882032482312</v>
       </c>
       <c r="U17" t="n">
-        <v>1493.078158670357</v>
+        <v>1493.070569379215</v>
       </c>
       <c r="V17" t="n">
-        <v>535.8698395938937</v>
+        <v>535.7688074570115</v>
       </c>
       <c r="W17" t="n">
-        <v>203.9777369421952</v>
+        <v>203.9599104216551</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -5133,31 +5133,31 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>217.3119463751182</v>
+        <v>217.4203771717428</v>
       </c>
       <c r="AA17" t="n">
-        <v>203.5454597137451</v>
+        <v>203.5236284007199</v>
       </c>
       <c r="AB17" t="n">
-        <v>403.3141333846379</v>
+        <v>403.232699796754</v>
       </c>
       <c r="AC17" t="n">
-        <v>403.8671045671391</v>
+        <v>403.7883376868439</v>
       </c>
       <c r="AD17" t="n">
-        <v>406.2317586741316</v>
+        <v>406.2338525571807</v>
       </c>
       <c r="AE17" t="n">
-        <v>954.9216587075009</v>
+        <v>955.0379739882912</v>
       </c>
       <c r="AF17" t="n">
-        <v>477.4608293537505</v>
+        <v>477.5189869941456</v>
       </c>
       <c r="AG17" t="n">
-        <v>291600.3495693587</v>
+        <v>289538.7293199166</v>
       </c>
       <c r="AH17" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389414</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
@@ -5187,13 +5187,13 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>15.69387968685856</v>
+        <v>15.18897681426026</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.04216997070249123</v>
+        <v>0.04035905923137911</v>
       </c>
       <c r="AT17" t="n">
-        <v>454.2560416217833</v>
+        <v>439.6733660576597</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -5250,73 +5250,73 @@
         <v>0</v>
       </c>
       <c r="BM17" t="n">
-        <v>39.57994606815164</v>
+        <v>51.09746097956229</v>
       </c>
       <c r="BN17" t="n">
-        <v>1872.721195452924</v>
+        <v>1935.49550994397</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.01535335671636495</v>
+        <v>0.01535556753846622</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.0002005311173236614</v>
+        <v>0.0002002485436270739</v>
       </c>
       <c r="BQ17" t="n">
-        <v>5.124345193337481</v>
+        <v>5.123428866276683</v>
       </c>
       <c r="BR17" t="n">
-        <v>3.182176054098527</v>
+        <v>3.18229846156973</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.05462963183001718</v>
+        <v>0.05463173324583159</v>
       </c>
       <c r="BT17" t="n">
-        <v>1.046205258951041</v>
+        <v>1.045247936673616</v>
       </c>
       <c r="BU17" t="n">
-        <v>2.853440391154824</v>
+        <v>2.851427562666177</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.2386970590577057</v>
+        <v>0.2385987390331193</v>
       </c>
       <c r="BW17" t="n">
-        <v>7.814271269347782</v>
+        <v>7.816596279368468</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.001346564723432308</v>
+        <v>0.001334456224857043</v>
       </c>
       <c r="BY17" t="n">
-        <v>4.074297747710415e-06</v>
+        <v>3.905606957301612e-06</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.3634287576226986</v>
+        <v>0.3215857535655361</v>
       </c>
       <c r="CA17" t="n">
-        <v>67.28175173854588</v>
+        <v>67.28983274460502</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.07248108667599169</v>
+        <v>0.07249667302726445</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.1360379844704963</v>
+        <v>0.1360438247579447</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.00135918877491238</v>
+        <v>0.001359254639029423</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.00135918877491238</v>
+        <v>0.001359254639029423</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.002038783303963608</v>
+        <v>0.002038882032482312</v>
       </c>
       <c r="CG17" t="n">
-        <v>1.493078158670357</v>
+        <v>1.493070569379215</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.5358698395938938</v>
+        <v>0.5357688074570115</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.2039777369421952</v>
+        <v>0.2039599104216551</v>
       </c>
       <c r="CJ17" t="n">
         <v>0</v>
@@ -5325,40 +5325,40 @@
         <v>0</v>
       </c>
       <c r="CL17" t="n">
-        <v>0.2173119463751182</v>
+        <v>0.2174203771717428</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.2035454597137451</v>
+        <v>0.2035236284007199</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.403314133384638</v>
+        <v>0.4032326997967541</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.403867104567139</v>
+        <v>0.4037883376868439</v>
       </c>
       <c r="CP17" t="n">
-        <v>0.4062317586741315</v>
+        <v>0.4062338525571807</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.9549216587075009</v>
+        <v>0.955037973988291</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.4774608293537504</v>
+        <v>0.4775189869941455</v>
       </c>
       <c r="CS17" t="n">
-        <v>291.6003495693587</v>
+        <v>289.5387293199166</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.0009809042643385726</v>
+        <v>0.0009493466513906934</v>
       </c>
       <c r="CU17" t="n">
-        <v>6.58930502120255e-07</v>
+        <v>6.306339492633959e-07</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.03782094645789032</v>
+        <v>0.03660680610269675</v>
       </c>
       <c r="CW17" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389414</v>
       </c>
     </row>
     <row r="18">
@@ -5369,67 +5369,67 @@
         <v>14</v>
       </c>
       <c r="C18" t="n">
-        <v>15.37638530331225</v>
+        <v>15.38021152988121</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2058325005785526</v>
+        <v>0.2054445007153232</v>
       </c>
       <c r="E18" t="n">
-        <v>4892.427124099428</v>
+        <v>4886.986418925436</v>
       </c>
       <c r="F18" t="n">
-        <v>3233.687213643837</v>
+        <v>3234.902057035165</v>
       </c>
       <c r="G18" t="n">
-        <v>55.51394358186666</v>
+        <v>55.53479926240511</v>
       </c>
       <c r="H18" t="n">
-        <v>993.494515354787</v>
+        <v>991.3250364207261</v>
       </c>
       <c r="I18" t="n">
-        <v>2817.760113822231</v>
+        <v>2814.725355116354</v>
       </c>
       <c r="J18" t="n">
-        <v>226.9580699760019</v>
+        <v>226.6151961050559</v>
       </c>
       <c r="K18" t="n">
-        <v>7819.550713955574</v>
+        <v>7822.576281379618</v>
       </c>
       <c r="L18" t="n">
-        <v>1.343293085135962</v>
+        <v>1.33110065551148</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003794582259562624</v>
+        <v>0.003629281646010103</v>
       </c>
       <c r="N18" t="n">
-        <v>363.4472751982609</v>
+        <v>321.6023648995302</v>
       </c>
       <c r="O18" t="n">
-        <v>70788.08191908323</v>
+        <v>70867.58265731073</v>
       </c>
       <c r="P18" t="n">
-        <v>75.36160843995873</v>
+        <v>75.53363671137971</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.6797142675208</v>
+        <v>130.5233144436168</v>
       </c>
       <c r="R18" t="n">
-        <v>1.30556053241006</v>
+        <v>1.303992832508803</v>
       </c>
       <c r="S18" t="n">
-        <v>1.30556053241006</v>
+        <v>1.303992832508803</v>
       </c>
       <c r="T18" t="n">
-        <v>1.958340882674929</v>
+        <v>1.955989301217267</v>
       </c>
       <c r="U18" t="n">
-        <v>1490.057626570645</v>
+        <v>1489.987482141739</v>
       </c>
       <c r="V18" t="n">
-        <v>501.180957498824</v>
+        <v>500.1465293979945</v>
       </c>
       <c r="W18" t="n">
-        <v>190.5646953846864</v>
+        <v>190.1846567449631</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -5438,31 +5438,31 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>204.046361101517</v>
+        <v>203.8216914917988</v>
       </c>
       <c r="AA18" t="n">
-        <v>190.1198083553522</v>
+        <v>189.7347722209376</v>
       </c>
       <c r="AB18" t="n">
-        <v>376.4534859296739</v>
+        <v>375.6376341948367</v>
       </c>
       <c r="AC18" t="n">
-        <v>376.9961130154638</v>
+        <v>376.1833936681927</v>
       </c>
       <c r="AD18" t="n">
-        <v>399.3920437930914</v>
+        <v>399.4505464041467</v>
       </c>
       <c r="AE18" t="n">
-        <v>1005.324692335119</v>
+        <v>1006.466908071422</v>
       </c>
       <c r="AF18" t="n">
-        <v>502.6623461675595</v>
+        <v>503.233454035711</v>
       </c>
       <c r="AG18" t="n">
-        <v>306991.7087360086</v>
+        <v>305130.4320901457</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389414</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
@@ -5492,13 +5492,13 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>15.65684123492196</v>
+        <v>15.15176903780571</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.03927727779049686</v>
+        <v>0.03750666817637836</v>
       </c>
       <c r="AT18" t="n">
-        <v>454.2827985319706</v>
+        <v>439.7001674500531</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -5555,73 +5555,73 @@
         <v>0</v>
       </c>
       <c r="BM18" t="n">
-        <v>39.57994606815164</v>
+        <v>51.09746097956228</v>
       </c>
       <c r="BN18" t="n">
-        <v>1872.551596373191</v>
+        <v>1935.308363978671</v>
       </c>
       <c r="BO18" t="n">
-        <v>0.01537638530331225</v>
+        <v>0.01538021152988121</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.0002058325005785525</v>
+        <v>0.0002054445007153232</v>
       </c>
       <c r="BQ18" t="n">
-        <v>4.892427124099428</v>
+        <v>4.886986418925437</v>
       </c>
       <c r="BR18" t="n">
-        <v>3.233687213643837</v>
+        <v>3.234902057035165</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.05551394358186666</v>
+        <v>0.05553479926240511</v>
       </c>
       <c r="BT18" t="n">
-        <v>0.9934945153547869</v>
+        <v>0.9913250364207262</v>
       </c>
       <c r="BU18" t="n">
-        <v>2.817760113822231</v>
+        <v>2.814725355116354</v>
       </c>
       <c r="BV18" t="n">
-        <v>0.2269580699760019</v>
+        <v>0.226615196105056</v>
       </c>
       <c r="BW18" t="n">
-        <v>7.819550713955573</v>
+        <v>7.822576281379619</v>
       </c>
       <c r="BX18" t="n">
-        <v>0.001343293085135962</v>
+        <v>0.00133110065551148</v>
       </c>
       <c r="BY18" t="n">
-        <v>3.794582259562624e-06</v>
+        <v>3.629281646010103e-06</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0.3634472751982609</v>
+        <v>0.3216023648995302</v>
       </c>
       <c r="CA18" t="n">
-        <v>70.78808191908323</v>
+        <v>70.86758265731075</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.07536160843995873</v>
+        <v>0.07553363671137971</v>
       </c>
       <c r="CC18" t="n">
-        <v>0.1306797142675208</v>
+        <v>0.1305233144436168</v>
       </c>
       <c r="CD18" t="n">
-        <v>0.001305560532410059</v>
+        <v>0.001303992832508803</v>
       </c>
       <c r="CE18" t="n">
-        <v>0.001305560532410059</v>
+        <v>0.001303992832508803</v>
       </c>
       <c r="CF18" t="n">
-        <v>0.001958340882674929</v>
+        <v>0.001955989301217267</v>
       </c>
       <c r="CG18" t="n">
-        <v>1.490057626570645</v>
+        <v>1.489987482141739</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.501180957498824</v>
+        <v>0.5001465293979945</v>
       </c>
       <c r="CI18" t="n">
-        <v>0.1905646953846864</v>
+        <v>0.190184656744963</v>
       </c>
       <c r="CJ18" t="n">
         <v>0</v>
@@ -5630,40 +5630,40 @@
         <v>0</v>
       </c>
       <c r="CL18" t="n">
-        <v>0.2040463611015171</v>
+        <v>0.2038216914917988</v>
       </c>
       <c r="CM18" t="n">
-        <v>0.1901198083553522</v>
+        <v>0.1897347722209377</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.3764534859296739</v>
+        <v>0.3756376341948366</v>
       </c>
       <c r="CO18" t="n">
-        <v>0.3769961130154638</v>
+        <v>0.3761833936681926</v>
       </c>
       <c r="CP18" t="n">
-        <v>0.3993920437930913</v>
+        <v>0.3994505464041467</v>
       </c>
       <c r="CQ18" t="n">
-        <v>1.005324692335119</v>
+        <v>1.006466908071422</v>
       </c>
       <c r="CR18" t="n">
-        <v>0.5026623461675594</v>
+        <v>0.5032334540357111</v>
       </c>
       <c r="CS18" t="n">
-        <v>306.9917087360087</v>
+        <v>305.1304320901457</v>
       </c>
       <c r="CT18" t="n">
-        <v>0.000978589274280408</v>
+        <v>0.0009470210781532872</v>
       </c>
       <c r="CU18" t="n">
-        <v>6.137304803695273e-07</v>
+        <v>5.860636676434485e-07</v>
       </c>
       <c r="CV18" t="n">
-        <v>0.03782317421399007</v>
+        <v>0.03660903756234467</v>
       </c>
       <c r="CW18" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389414</v>
       </c>
     </row>
     <row r="19">
@@ -5674,67 +5674,67 @@
         <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>15.39924137560939</v>
+        <v>15.3999715167328</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2111963025170848</v>
+        <v>0.2114211174927829</v>
       </c>
       <c r="E19" t="n">
-        <v>4662.444905158303</v>
+        <v>4666.057297203888</v>
       </c>
       <c r="F19" t="n">
-        <v>3284.728830138412</v>
+        <v>3283.727466738868</v>
       </c>
       <c r="G19" t="n">
-        <v>56.3901945088109</v>
+        <v>56.3730037208375</v>
       </c>
       <c r="H19" t="n">
-        <v>941.3055520559204</v>
+        <v>941.6316782786241</v>
       </c>
       <c r="I19" t="n">
-        <v>2782.497504202948</v>
+        <v>2781.411996616298</v>
       </c>
       <c r="J19" t="n">
-        <v>215.3224362895638</v>
+        <v>215.4588364809192</v>
       </c>
       <c r="K19" t="n">
-        <v>7824.543697048269</v>
+        <v>7826.159320181454</v>
       </c>
       <c r="L19" t="n">
-        <v>1.340057096347065</v>
+        <v>1.328042919080946</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003518493078291617</v>
+        <v>0.003381405760799032</v>
       </c>
       <c r="N19" t="n">
-        <v>363.4655916028076</v>
+        <v>321.617412838374</v>
       </c>
       <c r="O19" t="n">
-        <v>74263.76414388522</v>
+        <v>74199.17715985992</v>
       </c>
       <c r="P19" t="n">
-        <v>78.17345750531443</v>
+        <v>78.00182716033915</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3786019096825</v>
+        <v>125.4835022319397</v>
       </c>
       <c r="R19" t="n">
-        <v>1.252501464032454</v>
+        <v>1.253527276426481</v>
       </c>
       <c r="S19" t="n">
-        <v>1.252501464032454</v>
+        <v>1.253527276426481</v>
       </c>
       <c r="T19" t="n">
-        <v>1.878752225793484</v>
+        <v>1.880290932179724</v>
       </c>
       <c r="U19" t="n">
-        <v>1487.064047668869</v>
+        <v>1487.120229930694</v>
       </c>
       <c r="V19" t="n">
-        <v>466.9000426549755</v>
+        <v>467.8378654156498</v>
       </c>
       <c r="W19" t="n">
-        <v>177.3100189489543</v>
+        <v>177.6958772981641</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -5743,31 +5743,31 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>190.926620266906</v>
+        <v>191.4032644204999</v>
       </c>
       <c r="AA19" t="n">
-        <v>176.8529073880676</v>
+        <v>177.2355371163716</v>
       </c>
       <c r="AB19" t="n">
-        <v>349.9139801424219</v>
+        <v>350.6531035615147</v>
       </c>
       <c r="AC19" t="n">
-        <v>350.446084204753</v>
+        <v>351.1873932777135</v>
       </c>
       <c r="AD19" t="n">
-        <v>392.5250378507698</v>
+        <v>392.4135866795229</v>
       </c>
       <c r="AE19" t="n">
-        <v>1055.287508619495</v>
+        <v>1054.360270562775</v>
       </c>
       <c r="AF19" t="n">
-        <v>527.6437543097474</v>
+        <v>527.1801352813874</v>
       </c>
       <c r="AG19" t="n">
-        <v>322248.6406122039</v>
+        <v>319650.2561142051</v>
       </c>
       <c r="AH19" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389414</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
@@ -5797,13 +5797,13 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>15.62020532741774</v>
+        <v>15.11804358539586</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.03642203781425267</v>
+        <v>0.0349477099222867</v>
       </c>
       <c r="AT19" t="n">
-        <v>454.3092639092746</v>
+        <v>439.7244478717904</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5860,73 +5860,73 @@
         <v>0</v>
       </c>
       <c r="BM19" t="n">
-        <v>39.57994606815164</v>
+        <v>51.09746097956228</v>
       </c>
       <c r="BN19" t="n">
-        <v>1872.383942261948</v>
+        <v>1935.148933461852</v>
       </c>
       <c r="BO19" t="n">
-        <v>0.01539924137560939</v>
+        <v>0.0153999715167328</v>
       </c>
       <c r="BP19" t="n">
-        <v>0.0002111963025170848</v>
+        <v>0.0002114211174927828</v>
       </c>
       <c r="BQ19" t="n">
-        <v>4.662444905158304</v>
+        <v>4.666057297203889</v>
       </c>
       <c r="BR19" t="n">
-        <v>3.284728830138413</v>
+        <v>3.283727466738868</v>
       </c>
       <c r="BS19" t="n">
-        <v>0.05639019450881089</v>
+        <v>0.05637300372083751</v>
       </c>
       <c r="BT19" t="n">
-        <v>0.9413055520559204</v>
+        <v>0.9416316782786242</v>
       </c>
       <c r="BU19" t="n">
-        <v>2.782497504202948</v>
+        <v>2.781411996616298</v>
       </c>
       <c r="BV19" t="n">
-        <v>0.2153224362895638</v>
+        <v>0.2154588364809192</v>
       </c>
       <c r="BW19" t="n">
-        <v>7.824543697048268</v>
+        <v>7.826159320181455</v>
       </c>
       <c r="BX19" t="n">
-        <v>0.001340057096347065</v>
+        <v>0.001328042919080946</v>
       </c>
       <c r="BY19" t="n">
-        <v>3.518493078291617e-06</v>
+        <v>3.381405760799032e-06</v>
       </c>
       <c r="BZ19" t="n">
-        <v>0.3634655916028076</v>
+        <v>0.321617412838374</v>
       </c>
       <c r="CA19" t="n">
-        <v>74.26376414388521</v>
+        <v>74.1991771598599</v>
       </c>
       <c r="CB19" t="n">
-        <v>0.07817345750531444</v>
+        <v>0.07800182716033914</v>
       </c>
       <c r="CC19" t="n">
-        <v>0.1253786019096825</v>
+        <v>0.1254835022319397</v>
       </c>
       <c r="CD19" t="n">
-        <v>0.001252501464032454</v>
+        <v>0.001253527276426481</v>
       </c>
       <c r="CE19" t="n">
-        <v>0.001252501464032454</v>
+        <v>0.001253527276426481</v>
       </c>
       <c r="CF19" t="n">
-        <v>0.001878752225793484</v>
+        <v>0.001880290932179724</v>
       </c>
       <c r="CG19" t="n">
-        <v>1.487064047668869</v>
+        <v>1.487120229930694</v>
       </c>
       <c r="CH19" t="n">
-        <v>0.4669000426549755</v>
+        <v>0.4678378654156498</v>
       </c>
       <c r="CI19" t="n">
-        <v>0.1773100189489543</v>
+        <v>0.1776958772981641</v>
       </c>
       <c r="CJ19" t="n">
         <v>0</v>
@@ -5935,40 +5935,40 @@
         <v>0</v>
       </c>
       <c r="CL19" t="n">
-        <v>0.190926620266906</v>
+        <v>0.1914032644204999</v>
       </c>
       <c r="CM19" t="n">
-        <v>0.1768529073880676</v>
+        <v>0.1772355371163716</v>
       </c>
       <c r="CN19" t="n">
-        <v>0.3499139801424219</v>
+        <v>0.3506531035615147</v>
       </c>
       <c r="CO19" t="n">
-        <v>0.3504460842047531</v>
+        <v>0.3511873932777134</v>
       </c>
       <c r="CP19" t="n">
-        <v>0.3925250378507698</v>
+        <v>0.3924135866795229</v>
       </c>
       <c r="CQ19" t="n">
-        <v>1.055287508619495</v>
+        <v>1.054360270562775</v>
       </c>
       <c r="CR19" t="n">
-        <v>0.5276437543097474</v>
+        <v>0.5271801352813874</v>
       </c>
       <c r="CS19" t="n">
-        <v>322.2486406122039</v>
+        <v>319.6502561142051</v>
       </c>
       <c r="CT19" t="n">
-        <v>0.0009762994441927661</v>
+        <v>0.0009449131583306783</v>
       </c>
       <c r="CU19" t="n">
-        <v>5.691156826857986e-07</v>
+        <v>5.46078445477435e-07</v>
       </c>
       <c r="CV19" t="n">
-        <v>0.03782537769732611</v>
+        <v>0.03661105912825983</v>
       </c>
       <c r="CW19" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389414</v>
       </c>
     </row>
     <row r="20">
@@ -5979,67 +5979,67 @@
         <v>16</v>
       </c>
       <c r="C20" t="n">
-        <v>15.42009408546651</v>
+        <v>15.41868875508503</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2172849544683266</v>
+        <v>0.2176369564060488</v>
       </c>
       <c r="E20" t="n">
-        <v>4454.943152489091</v>
+        <v>4449.707478899612</v>
       </c>
       <c r="F20" t="n">
-        <v>3330.317779796087</v>
+        <v>3331.440561200542</v>
       </c>
       <c r="G20" t="n">
-        <v>57.17283742138874</v>
+        <v>57.19211263863428</v>
       </c>
       <c r="H20" t="n">
-        <v>895.1758715411456</v>
+        <v>893.1783191321249</v>
       </c>
       <c r="I20" t="n">
-        <v>2752.08514821993</v>
+        <v>2749.092528656942</v>
       </c>
       <c r="J20" t="n">
-        <v>204.8870387375915</v>
+        <v>204.5468803009512</v>
       </c>
       <c r="K20" t="n">
-        <v>7826.210085910726</v>
+        <v>7829.05210725556</v>
       </c>
       <c r="L20" t="n">
-        <v>1.337235094916104</v>
+        <v>1.325072156574668</v>
       </c>
       <c r="M20" t="n">
-        <v>0.003284515143724184</v>
+        <v>0.003141786653801999</v>
       </c>
       <c r="N20" t="n">
-        <v>363.4815718668796</v>
+        <v>321.6320164474133</v>
       </c>
       <c r="O20" t="n">
-        <v>77383.54057560721</v>
+        <v>77458.2156879152</v>
       </c>
       <c r="P20" t="n">
-        <v>80.18783050168747</v>
+        <v>80.3055623553489</v>
       </c>
       <c r="Q20" t="n">
-        <v>120.7412469776243</v>
+        <v>120.5856219397032</v>
       </c>
       <c r="R20" t="n">
-        <v>1.20605204916669</v>
+        <v>1.204478623114486</v>
       </c>
       <c r="S20" t="n">
-        <v>1.20605204916669</v>
+        <v>1.204478623114486</v>
       </c>
       <c r="T20" t="n">
-        <v>1.809078086574617</v>
+        <v>1.806717917370076</v>
       </c>
       <c r="U20" t="n">
-        <v>1484.383468412828</v>
+        <v>1484.316682240493</v>
       </c>
       <c r="V20" t="n">
-        <v>437.3567328034534</v>
+        <v>436.4979092867225</v>
       </c>
       <c r="W20" t="n">
-        <v>165.8943905968449</v>
+        <v>165.5831449775198</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -6048,31 +6048,31 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>179.5005284695496</v>
+        <v>179.3306052936424</v>
       </c>
       <c r="AA20" t="n">
-        <v>165.4295285250639</v>
+        <v>165.1132672474852</v>
       </c>
       <c r="AB20" t="n">
-        <v>327.1037991076897</v>
+        <v>326.4313493576472</v>
       </c>
       <c r="AC20" t="n">
-        <v>327.6233023223002</v>
+        <v>326.9537282249714</v>
       </c>
       <c r="AD20" t="n">
-        <v>385.3411087539894</v>
+        <v>385.3082563221425</v>
       </c>
       <c r="AE20" t="n">
-        <v>1100.138208975912</v>
+        <v>1101.211473554223</v>
       </c>
       <c r="AF20" t="n">
-        <v>550.0691044879559</v>
+        <v>550.6057367771116</v>
       </c>
       <c r="AG20" t="n">
-        <v>335944.5074753198</v>
+        <v>333854.1287880886</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.000001147389408</v>
+        <v>7.000001147389414</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
@@ -6102,13 +6102,13 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>15.58824405128836</v>
+        <v>15.08531089491082</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.03400172788412414</v>
+        <v>0.03247385683656537</v>
       </c>
       <c r="AT20" t="n">
-        <v>454.3323438000265</v>
+        <v>439.7480106551314</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -6165,73 +6165,73 @@
         <v>0</v>
       </c>
       <c r="BM20" t="n">
-        <v>39.57994606815164</v>
+        <v>51.09746097956229</v>
       </c>
       <c r="BN20" t="n">
-        <v>1872.238874503902</v>
+        <v>1934.99619705699</v>
       </c>
       <c r="BO20" t="n">
-        <v>0.01542009408546651</v>
+        <v>0.01541868875508503</v>
       </c>
       <c r="BP20" t="n">
-        <v>0.0002172849544683266</v>
+        <v>0.0002176369564060488</v>
       </c>
       <c r="BQ20" t="n">
-        <v>4.454943152489091</v>
+        <v>4.449707478899612</v>
       </c>
       <c r="BR20" t="n">
-        <v>3.330317779796087</v>
+        <v>3.331440561200542</v>
       </c>
       <c r="BS20" t="n">
-        <v>0.05717283742138874</v>
+        <v>0.05719211263863427</v>
       </c>
       <c r="BT20" t="n">
-        <v>0.8951758715411458</v>
+        <v>0.8931783191321249</v>
       </c>
       <c r="BU20" t="n">
-        <v>2.75208514821993</v>
+        <v>2.749092528656941</v>
       </c>
       <c r="BV20" t="n">
-        <v>0.2048870387375916</v>
+        <v>0.2045468803009512</v>
       </c>
       <c r="BW20" t="n">
-        <v>7.826210085910726</v>
+        <v>7.829052107255562</v>
       </c>
       <c r="BX20" t="n">
-        <v>0.001337235094916104</v>
+        <v>0.001325072156574668</v>
       </c>
       <c r="BY20" t="n">
-        <v>3.284515143724184e-06</v>
+        <v>3.141786653801999e-06</v>
       </c>
       <c r="BZ20" t="n">
-        <v>0.3634815718668796</v>
+        <v>0.3216320164474132</v>
       </c>
       <c r="CA20" t="n">
-        <v>77.38354057560723</v>
+        <v>77.4582156879152</v>
       </c>
       <c r="CB20" t="n">
-        <v>0.08018783050168747</v>
+        <v>0.08030556235534889</v>
       </c>
       <c r="CC20" t="n">
-        <v>0.1207412469776243</v>
+        <v>0.1205856219397032</v>
       </c>
       <c r="CD20" t="n">
-        <v>0.00120605204916669</v>
+        <v>0.001204478623114486</v>
       </c>
       <c r="CE20" t="n">
-        <v>0.00120605204916669</v>
+        <v>0.001204478623114486</v>
       </c>
       <c r="CF20" t="n">
-        <v>0.001809078086574617</v>
+        <v>0.001806717917370076</v>
       </c>
       <c r="CG20" t="n">
-        <v>1.484383468412827</v>
+        <v>1.484316682240493</v>
       </c>
       <c r="CH20" t="n">
-        <v>0.4373567328034534</v>
+        <v>0.4364979092867225</v>
       </c>
       <c r="CI20" t="n">
-        <v>0.1658943905968449</v>
+        <v>0.1655831449775199</v>
       </c>
       <c r="CJ20" t="n">
         <v>0</v>
@@ -6240,40 +6240,40 @@
         <v>0</v>
       </c>
       <c r="CL20" t="n">
-        <v>0.1795005284695496</v>
+        <v>0.1793306052936424</v>
       </c>
       <c r="CM20" t="n">
-        <v>0.1654295285250638</v>
+        <v>0.1651132672474852</v>
       </c>
       <c r="CN20" t="n">
-        <v>0.3271037991076896</v>
+        <v>0.3264313493576471</v>
       </c>
       <c r="CO20" t="n">
-        <v>0.3276233023223002</v>
+        <v>0.3269537282249714</v>
       </c>
       <c r="CP20" t="n">
-        <v>0.3853411087539894</v>
+        <v>0.3853082563221424</v>
       </c>
       <c r="CQ20" t="n">
-        <v>1.100138208975912</v>
+        <v>1.101211473554223</v>
       </c>
       <c r="CR20" t="n">
-        <v>0.5500691044879558</v>
+        <v>0.5506057367771117</v>
       </c>
       <c r="CS20" t="n">
-        <v>335.9445074753198</v>
+        <v>333.8541287880885</v>
       </c>
       <c r="CT20" t="n">
-        <v>0.0009743017895226295</v>
+        <v>0.0009428672884552431</v>
       </c>
       <c r="CU20" t="n">
-        <v>5.312969218240082e-07</v>
+        <v>5.074230414353878e-07</v>
       </c>
       <c r="CV20" t="n">
-        <v>0.03782729930811913</v>
+        <v>0.03661302094425233</v>
       </c>
       <c r="CW20" t="n">
-        <v>7.000001147389408</v>
+        <v>7.000001147389414</v>
       </c>
     </row>
     <row r="21">
@@ -6284,67 +6284,67 @@
         <v>17</v>
       </c>
       <c r="C21" t="n">
-        <v>15.44094679532363</v>
+        <v>15.43791793443469</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2233736064195684</v>
+        <v>0.2247967879916331</v>
       </c>
       <c r="E21" t="n">
-        <v>4247.441399819878</v>
+        <v>4249.648866546737</v>
       </c>
       <c r="F21" t="n">
-        <v>3375.906729453762</v>
+        <v>3375.227720782876</v>
       </c>
       <c r="G21" t="n">
-        <v>57.95548033396658</v>
+        <v>57.94382353275162</v>
       </c>
       <c r="H21" t="n">
-        <v>849.0461910263709</v>
+        <v>849.0464090837438</v>
       </c>
       <c r="I21" t="n">
-        <v>2721.672792236912</v>
+        <v>2720.240671853504</v>
       </c>
       <c r="J21" t="n">
-        <v>194.4516411856193</v>
+        <v>194.5068539233324</v>
       </c>
       <c r="K21" t="n">
-        <v>7827.876474773183</v>
+        <v>7829.672303949706</v>
       </c>
       <c r="L21" t="n">
-        <v>1.334413093485144</v>
+        <v>1.322400842538738</v>
       </c>
       <c r="M21" t="n">
-        <v>0.003050537209156752</v>
+        <v>0.002930048819910346</v>
       </c>
       <c r="N21" t="n">
-        <v>363.4975521309515</v>
+        <v>321.6452209227468</v>
       </c>
       <c r="O21" t="n">
-        <v>80503.31700732923</v>
+        <v>80460.24690792146</v>
       </c>
       <c r="P21" t="n">
-        <v>82.20220349806048</v>
+        <v>82.06061897140101</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.1038920455661</v>
+        <v>116.1930660873331</v>
       </c>
       <c r="R21" t="n">
-        <v>1.159602634300926</v>
+        <v>1.160482565670106</v>
       </c>
       <c r="S21" t="n">
-        <v>1.159602634300926</v>
+        <v>1.160482565670106</v>
       </c>
       <c r="T21" t="n">
-        <v>1.739403947355749</v>
+        <v>1.740723839336499</v>
       </c>
       <c r="U21" t="n">
-        <v>1481.702889156786</v>
+        <v>1481.739696339626</v>
       </c>
       <c r="V21" t="n">
-        <v>407.8134229519313</v>
+        <v>408.5044992276715</v>
       </c>
       <c r="W21" t="n">
-        <v>154.4787622447356</v>
+        <v>154.7690637094499</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -6353,31 +6353,31 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>168.0744366721933</v>
+        <v>168.4602429849999</v>
       </c>
       <c r="AA21" t="n">
-        <v>154.00614966206</v>
+        <v>154.2928004654445</v>
       </c>
       <c r="AB21" t="n">
-        <v>304.2936180729574</v>
+        <v>304.8405315664353</v>
       </c>
       <c r="AC21" t="n">
-        <v>304.8005204398473</v>
+        <v>305.3497335287958</v>
       </c>
       <c r="AD21" t="n">
-        <v>378.157179657209</v>
+        <v>378.0285199023331</v>
       </c>
       <c r="AE21" t="n">
-        <v>1144.988909332328</v>
+        <v>1144.370872163446</v>
       </c>
       <c r="AF21" t="n">
-        <v>572.4944546661642</v>
+        <v>572.1854360817231</v>
       </c>
       <c r="AG21" t="n">
-        <v>349640.3743384359</v>
+        <v>346938.7576425212</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389415</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
@@ -6407,13 +6407,13 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>15.55628277515897</v>
+        <v>15.05573787130664</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.03158141795399561</v>
+        <v>0.03028677316438363</v>
       </c>
       <c r="AT21" t="n">
-        <v>454.3554236907782</v>
+        <v>439.7693009690393</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -6470,73 +6470,73 @@
         <v>0</v>
       </c>
       <c r="BM21" t="n">
-        <v>39.57994606815164</v>
+        <v>51.09746097956229</v>
       </c>
       <c r="BN21" t="n">
-        <v>1872.093806745855</v>
+        <v>1934.851539038513</v>
       </c>
       <c r="BO21" t="n">
-        <v>0.01544094679532364</v>
+        <v>0.01543791793443469</v>
       </c>
       <c r="BP21" t="n">
-        <v>0.0002233736064195684</v>
+        <v>0.000224796787991633</v>
       </c>
       <c r="BQ21" t="n">
-        <v>4.247441399819877</v>
+        <v>4.249648866546736</v>
       </c>
       <c r="BR21" t="n">
-        <v>3.375906729453762</v>
+        <v>3.375227720782876</v>
       </c>
       <c r="BS21" t="n">
-        <v>0.05795548033396658</v>
+        <v>0.05794382353275162</v>
       </c>
       <c r="BT21" t="n">
-        <v>0.8490461910263709</v>
+        <v>0.8490464090837437</v>
       </c>
       <c r="BU21" t="n">
-        <v>2.721672792236912</v>
+        <v>2.720240671853503</v>
       </c>
       <c r="BV21" t="n">
-        <v>0.1944516411856193</v>
+        <v>0.1945068539233324</v>
       </c>
       <c r="BW21" t="n">
-        <v>7.827876474773183</v>
+        <v>7.829672303949707</v>
       </c>
       <c r="BX21" t="n">
-        <v>0.001334413093485144</v>
+        <v>0.001322400842538738</v>
       </c>
       <c r="BY21" t="n">
-        <v>3.050537209156752e-06</v>
+        <v>2.930048819910346e-06</v>
       </c>
       <c r="BZ21" t="n">
-        <v>0.3634975521309515</v>
+        <v>0.3216452209227467</v>
       </c>
       <c r="CA21" t="n">
-        <v>80.50331700732924</v>
+        <v>80.46024690792146</v>
       </c>
       <c r="CB21" t="n">
-        <v>0.0822022034980605</v>
+        <v>0.08206061897140102</v>
       </c>
       <c r="CC21" t="n">
-        <v>0.1161038920455661</v>
+        <v>0.116193066087333</v>
       </c>
       <c r="CD21" t="n">
-        <v>0.001159602634300925</v>
+        <v>0.001160482565670106</v>
       </c>
       <c r="CE21" t="n">
-        <v>0.001159602634300925</v>
+        <v>0.001160482565670106</v>
       </c>
       <c r="CF21" t="n">
-        <v>0.001739403947355749</v>
+        <v>0.001740723839336499</v>
       </c>
       <c r="CG21" t="n">
-        <v>1.481702889156786</v>
+        <v>1.481739696339626</v>
       </c>
       <c r="CH21" t="n">
-        <v>0.4078134229519312</v>
+        <v>0.4085044992276715</v>
       </c>
       <c r="CI21" t="n">
-        <v>0.1544787622447356</v>
+        <v>0.15476906370945</v>
       </c>
       <c r="CJ21" t="n">
         <v>0</v>
@@ -6545,40 +6545,40 @@
         <v>0</v>
       </c>
       <c r="CL21" t="n">
-        <v>0.1680744366721932</v>
+        <v>0.1684602429849998</v>
       </c>
       <c r="CM21" t="n">
-        <v>0.1540061496620601</v>
+        <v>0.1542928004654445</v>
       </c>
       <c r="CN21" t="n">
-        <v>0.3042936180729574</v>
+        <v>0.3048405315664353</v>
       </c>
       <c r="CO21" t="n">
-        <v>0.3048005204398473</v>
+        <v>0.3053497335287958</v>
       </c>
       <c r="CP21" t="n">
-        <v>0.378157179657209</v>
+        <v>0.3780285199023331</v>
       </c>
       <c r="CQ21" t="n">
-        <v>1.144988909332328</v>
+        <v>1.144370872163446</v>
       </c>
       <c r="CR21" t="n">
-        <v>0.5724944546661642</v>
+        <v>0.5721854360817231</v>
       </c>
       <c r="CS21" t="n">
-        <v>349.6403743384358</v>
+        <v>346.9387576425213</v>
       </c>
       <c r="CT21" t="n">
-        <v>0.0009723041348524928</v>
+        <v>0.0009410189051656088</v>
       </c>
       <c r="CU21" t="n">
-        <v>4.934781609622176e-07</v>
+        <v>4.732485775151512e-07</v>
       </c>
       <c r="CV21" t="n">
-        <v>0.03782922091891215</v>
+        <v>0.03661479355649873</v>
       </c>
       <c r="CW21" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389415</v>
       </c>
     </row>
     <row r="22">
@@ -6589,67 +6589,67 @@
         <v>18</v>
       </c>
       <c r="C22" t="n">
-        <v>15.46033061594337</v>
+        <v>15.45782032761116</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2303559448286819</v>
+        <v>0.2321165040510884</v>
       </c>
       <c r="E22" t="n">
-        <v>4056.237396358611</v>
+        <v>4054.62094988671</v>
       </c>
       <c r="F22" t="n">
-        <v>3417.594112102123</v>
+        <v>3417.815495525484</v>
       </c>
       <c r="G22" t="n">
-        <v>58.67114355539759</v>
+        <v>58.67494412919134</v>
       </c>
       <c r="H22" t="n">
-        <v>807.1643708003</v>
+        <v>806.214438692616</v>
       </c>
       <c r="I22" t="n">
-        <v>2694.662726208235</v>
+        <v>2692.432510610455</v>
       </c>
       <c r="J22" t="n">
-        <v>184.8894295470696</v>
+        <v>184.7366990103401</v>
       </c>
       <c r="K22" t="n">
-        <v>7827.433357695832</v>
+        <v>7829.663822339864</v>
       </c>
       <c r="L22" t="n">
-        <v>1.331889149040232</v>
+        <v>1.319817684111063</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00284445515924468</v>
+        <v>0.002726403515534415</v>
       </c>
       <c r="N22" t="n">
-        <v>363.5118505379874</v>
+        <v>321.6579857461683</v>
       </c>
       <c r="O22" t="n">
-        <v>83366.85471418162</v>
+        <v>83383.37097388486</v>
       </c>
       <c r="P22" t="n">
-        <v>83.69707602475714</v>
+        <v>83.66091804296622</v>
       </c>
       <c r="Q22" t="n">
-        <v>111.9646621986958</v>
+        <v>111.9523539564139</v>
       </c>
       <c r="R22" t="n">
-        <v>1.11813608820588</v>
+        <v>1.118005633552946</v>
       </c>
       <c r="S22" t="n">
-        <v>1.11813608820588</v>
+        <v>1.118005633552946</v>
       </c>
       <c r="T22" t="n">
-        <v>1.677204126224503</v>
+        <v>1.677008447956585</v>
       </c>
       <c r="U22" t="n">
-        <v>1479.249243162826</v>
+        <v>1479.232729588787</v>
       </c>
       <c r="V22" t="n">
-        <v>381.539876089077</v>
+        <v>381.5054273580085</v>
       </c>
       <c r="W22" t="n">
-        <v>144.331727041991</v>
+        <v>144.3406307181663</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -6658,31 +6658,31 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>157.8299279799336</v>
+        <v>157.9500958024921</v>
       </c>
       <c r="AA22" t="n">
-        <v>143.8544117288549</v>
+        <v>143.8589100884824</v>
       </c>
       <c r="AB22" t="n">
-        <v>284.0506936781436</v>
+        <v>284.0297389520903</v>
       </c>
       <c r="AC22" t="n">
-        <v>284.5439784810201</v>
+        <v>284.5254866457814</v>
       </c>
       <c r="AD22" t="n">
-        <v>370.8544946771345</v>
+        <v>370.722662716561</v>
       </c>
       <c r="AE22" t="n">
-        <v>1186.158629465859</v>
+        <v>1186.396693480324</v>
       </c>
       <c r="AF22" t="n">
-        <v>593.0793147329294</v>
+        <v>593.1983467401622</v>
       </c>
       <c r="AG22" t="n">
-        <v>362212.1959880356</v>
+        <v>359679.720027399</v>
       </c>
       <c r="AH22" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389414</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
@@ -6712,13 +6712,13 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>15.52768998761011</v>
+        <v>15.027148596713</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.02944931469648505</v>
+        <v>0.0281831739402219</v>
       </c>
       <c r="AT22" t="n">
-        <v>454.376067846448</v>
+        <v>439.7898812008082</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -6775,73 +6775,73 @@
         <v>0</v>
       </c>
       <c r="BM22" t="n">
-        <v>39.57994606815164</v>
+        <v>51.09746097956227</v>
       </c>
       <c r="BN22" t="n">
-        <v>1871.96435061409</v>
+        <v>1934.712425996158</v>
       </c>
       <c r="BO22" t="n">
-        <v>0.01546033061594337</v>
+        <v>0.01545782032761115</v>
       </c>
       <c r="BP22" t="n">
-        <v>0.0002303559448286818</v>
+        <v>0.0002321165040510883</v>
       </c>
       <c r="BQ22" t="n">
-        <v>4.056237396358609</v>
+        <v>4.05462094988671</v>
       </c>
       <c r="BR22" t="n">
-        <v>3.417594112102122</v>
+        <v>3.417815495525485</v>
       </c>
       <c r="BS22" t="n">
-        <v>0.0586711435553976</v>
+        <v>0.05867494412919133</v>
       </c>
       <c r="BT22" t="n">
-        <v>0.8071643708003</v>
+        <v>0.8062144386926161</v>
       </c>
       <c r="BU22" t="n">
-        <v>2.694662726208235</v>
+        <v>2.692432510610455</v>
       </c>
       <c r="BV22" t="n">
-        <v>0.1848894295470696</v>
+        <v>0.18473669901034</v>
       </c>
       <c r="BW22" t="n">
-        <v>7.827433357695833</v>
+        <v>7.829663822339864</v>
       </c>
       <c r="BX22" t="n">
-        <v>0.001331889149040233</v>
+        <v>0.001319817684111063</v>
       </c>
       <c r="BY22" t="n">
-        <v>2.84445515924468e-06</v>
+        <v>2.726403515534416e-06</v>
       </c>
       <c r="BZ22" t="n">
-        <v>0.3635118505379873</v>
+        <v>0.3216579857461683</v>
       </c>
       <c r="CA22" t="n">
-        <v>83.36685471418161</v>
+        <v>83.38337097388485</v>
       </c>
       <c r="CB22" t="n">
-        <v>0.08369707602475714</v>
+        <v>0.08366091804296623</v>
       </c>
       <c r="CC22" t="n">
-        <v>0.1119646621986958</v>
+        <v>0.1119523539564139</v>
       </c>
       <c r="CD22" t="n">
-        <v>0.00111813608820588</v>
+        <v>0.001118005633552946</v>
       </c>
       <c r="CE22" t="n">
-        <v>0.00111813608820588</v>
+        <v>0.001118005633552946</v>
       </c>
       <c r="CF22" t="n">
-        <v>0.001677204126224503</v>
+        <v>0.001677008447956586</v>
       </c>
       <c r="CG22" t="n">
-        <v>1.479249243162826</v>
+        <v>1.479232729588787</v>
       </c>
       <c r="CH22" t="n">
-        <v>0.381539876089077</v>
+        <v>0.3815054273580085</v>
       </c>
       <c r="CI22" t="n">
-        <v>0.144331727041991</v>
+        <v>0.1443406307181663</v>
       </c>
       <c r="CJ22" t="n">
         <v>0</v>
@@ -6850,40 +6850,40 @@
         <v>0</v>
       </c>
       <c r="CL22" t="n">
-        <v>0.1578299279799336</v>
+        <v>0.1579500958024921</v>
       </c>
       <c r="CM22" t="n">
-        <v>0.1438544117288549</v>
+        <v>0.1438589100884824</v>
       </c>
       <c r="CN22" t="n">
-        <v>0.2840506936781436</v>
+        <v>0.2840297389520903</v>
       </c>
       <c r="CO22" t="n">
-        <v>0.2845439784810201</v>
+        <v>0.2845254866457814</v>
       </c>
       <c r="CP22" t="n">
-        <v>0.3708544946771345</v>
+        <v>0.370722662716561</v>
       </c>
       <c r="CQ22" t="n">
-        <v>1.186158629465859</v>
+        <v>1.186396693480324</v>
       </c>
       <c r="CR22" t="n">
-        <v>0.5930793147329294</v>
+        <v>0.593198346740162</v>
       </c>
       <c r="CS22" t="n">
-        <v>362.2121959880356</v>
+        <v>359.679720027399</v>
       </c>
       <c r="CT22" t="n">
-        <v>0.0009705170186138298</v>
+        <v>0.000939232008494881</v>
       </c>
       <c r="CU22" t="n">
-        <v>4.601627982375129e-07</v>
+        <v>4.403786070137303e-07</v>
       </c>
       <c r="CV22" t="n">
-        <v>0.03783093973260909</v>
+        <v>0.0366165070479496</v>
       </c>
       <c r="CW22" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389414</v>
       </c>
     </row>
     <row r="23">
@@ -6894,67 +6894,67 @@
         <v>19</v>
       </c>
       <c r="C23" t="n">
-        <v>15.47920450576608</v>
+        <v>15.47920003380759</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2376485300802175</v>
+        <v>0.239787073592058</v>
       </c>
       <c r="E23" t="n">
-        <v>3870.69122197802</v>
+        <v>3870.632485998677</v>
       </c>
       <c r="F23" t="n">
-        <v>3457.927050096571</v>
+        <v>3457.771317730712</v>
       </c>
       <c r="G23" t="n">
-        <v>59.36355450809199</v>
+        <v>59.3608809910839</v>
       </c>
       <c r="H23" t="n">
-        <v>766.7572123306122</v>
+        <v>766.2350802122209</v>
       </c>
       <c r="I23" t="n">
-        <v>2668.833778799004</v>
+        <v>2666.91465443667</v>
       </c>
       <c r="J23" t="n">
-        <v>175.6303479046172</v>
+        <v>175.5587550896539</v>
       </c>
       <c r="K23" t="n">
-        <v>7826.257917160818</v>
+        <v>7828.275757294774</v>
       </c>
       <c r="L23" t="n">
-        <v>1.329468676274867</v>
+        <v>1.317427975999874</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002648057277705829</v>
+        <v>0.002540516609370045</v>
       </c>
       <c r="N23" t="n">
-        <v>363.5255650815997</v>
+        <v>321.6697857892067</v>
       </c>
       <c r="O23" t="n">
-        <v>86141.43811877635</v>
+        <v>86133.33970436119</v>
       </c>
       <c r="P23" t="n">
-        <v>85.01160187736659</v>
+        <v>84.92161426280235</v>
       </c>
       <c r="Q23" t="n">
-        <v>107.9983584753553</v>
+        <v>108.0448505294252</v>
       </c>
       <c r="R23" t="n">
-        <v>1.078399365013154</v>
+        <v>1.078862298482499</v>
       </c>
       <c r="S23" t="n">
-        <v>1.078399365013154</v>
+        <v>1.078862298482499</v>
       </c>
       <c r="T23" t="n">
-        <v>1.617599044630282</v>
+        <v>1.618293449212435</v>
       </c>
       <c r="U23" t="n">
-        <v>1476.874377962042</v>
+        <v>1476.879414171101</v>
       </c>
       <c r="V23" t="n">
-        <v>356.4014405773771</v>
+        <v>356.6883498190184</v>
       </c>
       <c r="W23" t="n">
-        <v>134.6250890450473</v>
+        <v>134.7584715224205</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -6963,31 +6963,31 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>147.995610607221</v>
+        <v>148.2304114337808</v>
       </c>
       <c r="AA23" t="n">
-        <v>134.1441290506665</v>
+        <v>134.2733302091514</v>
       </c>
       <c r="AB23" t="n">
-        <v>264.6990027346219</v>
+        <v>264.9306481831238</v>
       </c>
       <c r="AC23" t="n">
-        <v>265.1783170163415</v>
+        <v>265.4123329560394</v>
       </c>
       <c r="AD23" t="n">
-        <v>363.5105831153136</v>
+        <v>363.3594856331409</v>
       </c>
       <c r="AE23" t="n">
-        <v>1226.050482534145</v>
+        <v>1225.934971573304</v>
       </c>
       <c r="AF23" t="n">
-        <v>613.0252412670726</v>
+        <v>612.9674857866519</v>
       </c>
       <c r="AG23" t="n">
-        <v>374393.8008281922</v>
+        <v>371666.5342801685</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.000001147389408</v>
+        <v>7.000001147389414</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
@@ -7017,13 +7017,13 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>15.50026658439804</v>
+        <v>15.00071807935781</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.02741726354265933</v>
+        <v>0.0262627745511094</v>
       </c>
       <c r="AT23" t="n">
-        <v>454.3958664269035</v>
+        <v>439.8089032150435</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -7080,73 +7080,73 @@
         <v>0</v>
       </c>
       <c r="BM23" t="n">
-        <v>39.57994606815164</v>
+        <v>51.09746097956228</v>
       </c>
       <c r="BN23" t="n">
-        <v>1871.840314121077</v>
+        <v>1934.585480953171</v>
       </c>
       <c r="BO23" t="n">
-        <v>0.01547920450576608</v>
+        <v>0.01547920003380759</v>
       </c>
       <c r="BP23" t="n">
-        <v>0.0002376485300802175</v>
+        <v>0.000239787073592058</v>
       </c>
       <c r="BQ23" t="n">
-        <v>3.870691221978019</v>
+        <v>3.870632485998677</v>
       </c>
       <c r="BR23" t="n">
-        <v>3.457927050096571</v>
+        <v>3.457771317730713</v>
       </c>
       <c r="BS23" t="n">
-        <v>0.05936355450809198</v>
+        <v>0.0593608809910839</v>
       </c>
       <c r="BT23" t="n">
-        <v>0.7667572123306122</v>
+        <v>0.766235080212221</v>
       </c>
       <c r="BU23" t="n">
-        <v>2.668833778799004</v>
+        <v>2.666914654436671</v>
       </c>
       <c r="BV23" t="n">
-        <v>0.1756303479046172</v>
+        <v>0.1755587550896539</v>
       </c>
       <c r="BW23" t="n">
-        <v>7.826257917160818</v>
+        <v>7.828275757294774</v>
       </c>
       <c r="BX23" t="n">
-        <v>0.001329468676274867</v>
+        <v>0.001317427975999874</v>
       </c>
       <c r="BY23" t="n">
-        <v>2.648057277705829e-06</v>
+        <v>2.540516609370045e-06</v>
       </c>
       <c r="BZ23" t="n">
-        <v>0.3635255650815997</v>
+        <v>0.3216697857892067</v>
       </c>
       <c r="CA23" t="n">
-        <v>86.14143811877635</v>
+        <v>86.13333970436121</v>
       </c>
       <c r="CB23" t="n">
-        <v>0.08501160187736659</v>
+        <v>0.08492161426280236</v>
       </c>
       <c r="CC23" t="n">
-        <v>0.1079983584753553</v>
+        <v>0.1080448505294252</v>
       </c>
       <c r="CD23" t="n">
-        <v>0.001078399365013154</v>
+        <v>0.001078862298482499</v>
       </c>
       <c r="CE23" t="n">
-        <v>0.001078399365013154</v>
+        <v>0.001078862298482499</v>
       </c>
       <c r="CF23" t="n">
-        <v>0.001617599044630282</v>
+        <v>0.001618293449212435</v>
       </c>
       <c r="CG23" t="n">
-        <v>1.476874377962042</v>
+        <v>1.476879414171101</v>
       </c>
       <c r="CH23" t="n">
-        <v>0.3564014405773771</v>
+        <v>0.3566883498190184</v>
       </c>
       <c r="CI23" t="n">
-        <v>0.1346250890450473</v>
+        <v>0.1347584715224205</v>
       </c>
       <c r="CJ23" t="n">
         <v>0</v>
@@ -7155,40 +7155,40 @@
         <v>0</v>
       </c>
       <c r="CL23" t="n">
-        <v>0.147995610607221</v>
+        <v>0.1482304114337808</v>
       </c>
       <c r="CM23" t="n">
-        <v>0.1341441290506665</v>
+        <v>0.1342733302091514</v>
       </c>
       <c r="CN23" t="n">
-        <v>0.2646990027346219</v>
+        <v>0.2649306481831237</v>
       </c>
       <c r="CO23" t="n">
-        <v>0.2651783170163414</v>
+        <v>0.2654123329560394</v>
       </c>
       <c r="CP23" t="n">
-        <v>0.3635105831153137</v>
+        <v>0.363359485633141</v>
       </c>
       <c r="CQ23" t="n">
-        <v>1.226050482534145</v>
+        <v>1.225934971573304</v>
       </c>
       <c r="CR23" t="n">
-        <v>0.6130252412670726</v>
+        <v>0.6129674857866518</v>
       </c>
       <c r="CS23" t="n">
-        <v>374.3938008281922</v>
+        <v>371.6665342801685</v>
       </c>
       <c r="CT23" t="n">
-        <v>0.0009688029916370639</v>
+        <v>0.0009375800392113332</v>
       </c>
       <c r="CU23" t="n">
-        <v>4.284108082593618e-07</v>
+        <v>4.103712412826324e-07</v>
       </c>
       <c r="CV23" t="n">
-        <v>0.0378325881444798</v>
+        <v>0.03661809080362039</v>
       </c>
       <c r="CW23" t="n">
-        <v>7.000001147389408</v>
+        <v>7.000001147389414</v>
       </c>
     </row>
     <row r="24">
@@ -7199,67 +7199,67 @@
         <v>20</v>
       </c>
       <c r="C24" t="n">
-        <v>15.497708570079</v>
+        <v>15.49799075297216</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2468634542122904</v>
+        <v>0.2471596567103779</v>
       </c>
       <c r="E24" t="n">
-        <v>3690.030982292704</v>
+        <v>3692.205523502516</v>
       </c>
       <c r="F24" t="n">
-        <v>3497.100834064804</v>
+        <v>3496.413353416582</v>
       </c>
       <c r="G24" t="n">
-        <v>60.03606582085499</v>
+        <v>60.02426357796679</v>
       </c>
       <c r="H24" t="n">
-        <v>727.5821799566199</v>
+        <v>727.662357076553</v>
       </c>
       <c r="I24" t="n">
-        <v>2644.016306874947</v>
+        <v>2642.5247278072</v>
       </c>
       <c r="J24" t="n">
-        <v>166.6371419685474</v>
+        <v>166.6793886476852</v>
       </c>
       <c r="K24" t="n">
-        <v>7824.503312603783</v>
+        <v>7826.261321873657</v>
       </c>
       <c r="L24" t="n">
-        <v>1.327131883250109</v>
+        <v>1.315137892881772</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002462361157768194</v>
+        <v>0.002362921689721736</v>
       </c>
       <c r="N24" t="n">
-        <v>363.5388058483441</v>
+        <v>321.6810993160627</v>
       </c>
       <c r="O24" t="n">
-        <v>88839.57170677149</v>
+        <v>88796.47283455286</v>
       </c>
       <c r="P24" t="n">
-        <v>86.18222751810802</v>
+        <v>86.02420392986004</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.1830590063764</v>
+        <v>104.3012263544606</v>
       </c>
       <c r="R24" t="n">
-        <v>1.040176641893843</v>
+        <v>1.041359120488908</v>
       </c>
       <c r="S24" t="n">
-        <v>1.040176641893843</v>
+        <v>1.041359120488908</v>
       </c>
       <c r="T24" t="n">
-        <v>1.560264962949844</v>
+        <v>1.562038680549672</v>
       </c>
       <c r="U24" t="n">
-        <v>1474.567547888373</v>
+        <v>1474.603887448101</v>
       </c>
       <c r="V24" t="n">
-        <v>332.2102348805527</v>
+        <v>332.9361312216455</v>
       </c>
       <c r="W24" t="n">
-        <v>125.2858299233682</v>
+        <v>125.5891350120347</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -7268,31 +7268,31 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>138.5061000028657</v>
+        <v>138.8993240978757</v>
       </c>
       <c r="AA24" t="n">
-        <v>124.80222335589</v>
+        <v>125.1015498038308</v>
       </c>
       <c r="AB24" t="n">
-        <v>246.0897464154101</v>
+        <v>246.6653578078609</v>
       </c>
       <c r="AC24" t="n">
-        <v>246.5548938640463</v>
+        <v>247.1327704818396</v>
       </c>
       <c r="AD24" t="n">
-        <v>356.1534519028627</v>
+        <v>355.9919887653448</v>
       </c>
       <c r="AE24" t="n">
-        <v>1264.84401253341</v>
+        <v>1264.225676377604</v>
       </c>
       <c r="AF24" t="n">
-        <v>632.4220062667048</v>
+        <v>632.1128381888022</v>
       </c>
       <c r="AG24" t="n">
-        <v>386240.0154423784</v>
+        <v>383275.1219130809</v>
       </c>
       <c r="AH24" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389414</v>
       </c>
       <c r="AI24" t="n">
         <v>0</v>
@@ -7322,13 +7322,13 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>15.47378600330932</v>
+        <v>14.97537869241527</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.02549530703586275</v>
+        <v>0.02442669519300405</v>
       </c>
       <c r="AT24" t="n">
-        <v>454.4149783607422</v>
+        <v>439.8271399214988</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -7385,73 +7385,73 @@
         <v>0</v>
       </c>
       <c r="BM24" t="n">
-        <v>39.57994606815164</v>
+        <v>51.09746097956228</v>
       </c>
       <c r="BN24" t="n">
-        <v>1871.714393421875</v>
+        <v>1934.462172210771</v>
       </c>
       <c r="BO24" t="n">
-        <v>0.015497708570079</v>
+        <v>0.01549799075297217</v>
       </c>
       <c r="BP24" t="n">
-        <v>0.0002468634542122904</v>
+        <v>0.0002471596567103779</v>
       </c>
       <c r="BQ24" t="n">
-        <v>3.690030982292704</v>
+        <v>3.692205523502516</v>
       </c>
       <c r="BR24" t="n">
-        <v>3.497100834064804</v>
+        <v>3.496413353416582</v>
       </c>
       <c r="BS24" t="n">
-        <v>0.06003606582085499</v>
+        <v>0.06002426357796679</v>
       </c>
       <c r="BT24" t="n">
-        <v>0.7275821799566199</v>
+        <v>0.727662357076553</v>
       </c>
       <c r="BU24" t="n">
-        <v>2.644016306874947</v>
+        <v>2.6425247278072</v>
       </c>
       <c r="BV24" t="n">
-        <v>0.1666371419685475</v>
+        <v>0.1666793886476852</v>
       </c>
       <c r="BW24" t="n">
-        <v>7.824503312603784</v>
+        <v>7.826261321873657</v>
       </c>
       <c r="BX24" t="n">
-        <v>0.001327131883250109</v>
+        <v>0.001315137892881772</v>
       </c>
       <c r="BY24" t="n">
-        <v>2.462361157768194e-06</v>
+        <v>2.362921689721737e-06</v>
       </c>
       <c r="BZ24" t="n">
-        <v>0.3635388058483441</v>
+        <v>0.3216810993160626</v>
       </c>
       <c r="CA24" t="n">
-        <v>88.83957170677148</v>
+        <v>88.79647283455286</v>
       </c>
       <c r="CB24" t="n">
-        <v>0.08618222751810801</v>
+        <v>0.08602420392986003</v>
       </c>
       <c r="CC24" t="n">
-        <v>0.1041830590063764</v>
+        <v>0.1043012263544606</v>
       </c>
       <c r="CD24" t="n">
-        <v>0.001040176641893843</v>
+        <v>0.001041359120488908</v>
       </c>
       <c r="CE24" t="n">
-        <v>0.001040176641893843</v>
+        <v>0.001041359120488908</v>
       </c>
       <c r="CF24" t="n">
-        <v>0.001560264962949844</v>
+        <v>0.001562038680549671</v>
       </c>
       <c r="CG24" t="n">
-        <v>1.474567547888373</v>
+        <v>1.474603887448101</v>
       </c>
       <c r="CH24" t="n">
-        <v>0.3322102348805527</v>
+        <v>0.3329361312216455</v>
       </c>
       <c r="CI24" t="n">
-        <v>0.1252858299233682</v>
+        <v>0.1255891350120347</v>
       </c>
       <c r="CJ24" t="n">
         <v>0</v>
@@ -7460,40 +7460,40 @@
         <v>0</v>
       </c>
       <c r="CL24" t="n">
-        <v>0.1385061000028656</v>
+        <v>0.1388993240978757</v>
       </c>
       <c r="CM24" t="n">
-        <v>0.12480222335589</v>
+        <v>0.1251015498038308</v>
       </c>
       <c r="CN24" t="n">
-        <v>0.2460897464154101</v>
+        <v>0.2466653578078609</v>
       </c>
       <c r="CO24" t="n">
-        <v>0.2465548938640463</v>
+        <v>0.2471327704818396</v>
       </c>
       <c r="CP24" t="n">
-        <v>0.3561534519028627</v>
+        <v>0.3559919887653448</v>
       </c>
       <c r="CQ24" t="n">
-        <v>1.26484401253341</v>
+        <v>1.264225676377605</v>
       </c>
       <c r="CR24" t="n">
-        <v>0.6324220062667048</v>
+        <v>0.6321128381888023</v>
       </c>
       <c r="CS24" t="n">
-        <v>386.2400154423784</v>
+        <v>383.2751219130809</v>
       </c>
       <c r="CT24" t="n">
-        <v>0.0009671478932528294</v>
+        <v>0.0009359962681360094</v>
       </c>
       <c r="CU24" t="n">
-        <v>3.983791116520423e-07</v>
+        <v>3.816814254441424e-07</v>
       </c>
       <c r="CV24" t="n">
-        <v>0.03783417938677531</v>
+        <v>0.03661960917527694</v>
       </c>
       <c r="CW24" t="n">
-        <v>7.000001147389407</v>
+        <v>7.000001147389414</v>
       </c>
     </row>
   </sheetData>
